--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -29120,7 +29120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29211,35 +29211,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29298,27 +29303,28 @@
       <c r="P2" t="n">
         <v>307.874019849819</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.9060336369142 -46.30377187519163, 169.91193477353303 -46.31050680968865)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.9060336369142</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.30377187519163</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.911934773533</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.31050680968865</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.9089842052236</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.30713934244014</v>
       </c>
     </row>
@@ -29375,27 +29381,28 @@
       <c r="P3" t="n">
         <v>307.971947546165</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.90527831455353 -46.30410777332378, 169.9111794085748 -46.31084271996682)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.9052783145535</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.30410777332378</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.9111794085748</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.31084271996682</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.9082288615642</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.3074752466453</v>
       </c>
     </row>
@@ -29452,27 +29459,28 @@
       <c r="P4" t="n">
         <v>309.8190182055594</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.90452299219342 -46.304443669394956, 169.91042404361534 -46.311178628183505)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.9045229921934</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.30444366939496</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.9104240436153</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.31117862818351</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.9074735179044</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.30781114878923</v>
       </c>
     </row>
@@ -29529,27 +29537,28 @@
       <c r="P5" t="n">
         <v>315.995191322513</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.90376766983405 -46.304779563405155, 169.90966867865458 -46.31151453433873)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.9037676698341</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.30477956340516</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.9096686786546</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.31151453433873</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.9067181742443</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.30814704887194</v>
       </c>
     </row>
@@ -29606,27 +29615,28 @@
       <c r="P6" t="n">
         <v>319.9071791680271</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.90301234747525 -46.305115455354354, 169.9089133136925 -46.31185043843245)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.9030123474753</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.30511545535435</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.9089133136925</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.31185043843245</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.9059628305839</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.30848294689341</v>
       </c>
     </row>
@@ -29683,27 +29693,28 @@
       <c r="P7" t="n">
         <v>310.3021366627013</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.9023958044365 -46.305395000722285, 169.90793636679985 -46.31227512841961)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.9023958044365</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.30539500072229</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.9079363667998</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.31227512841961</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.9051660856182</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.30883506457094</v>
       </c>
     </row>
@@ -29760,27 +29771,28 @@
       <c r="P8" t="n">
         <v>311.5024476602334</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.90183058571975 -46.305610430410844, 169.90679343540452 -46.31269873730727)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.9018305857198</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.30561043041084</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.9067934354045</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.31269873730727</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.9043120105621</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.30915458385905</v>
       </c>
     </row>
@@ -29837,27 +29849,28 @@
       <c r="P9" t="n">
         <v>312.3057273648258</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.9011060192374 -46.305857741948365, 169.90585773592088 -46.313015040092615)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.9011060192374</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.30585774194837</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.9058577359209</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.31301504009262</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.9034818775791</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.30943639102049</v>
       </c>
     </row>
@@ -29914,27 +29927,28 @@
       <c r="P10" t="n">
         <v>316.4282199768925</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.90030013401903 -46.30613187147903, 169.90505179163407 -46.313289179200424)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.900300134019</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.30613187147903</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.9050517916341</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.31328917920042</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.9026759628265</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.30971052533972</v>
       </c>
     </row>
@@ -29991,27 +30005,28 @@
       <c r="P11" t="n">
         <v>322.3966383761415</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.89939567536814 -46.30643869111908, 169.90440313789784 -46.31351191996461)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.8993956753681</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.30643869111908</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.9044031378978</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.31351191996461</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.901899406633</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.30997530554184</v>
       </c>
     </row>
@@ -30068,27 +30083,28 @@
       <c r="P12" t="n">
         <v>330.9573690793378</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.89841672975925 -46.3068107617035, 169.90392987339794 -46.31370140242732)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.8984167297592</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.3068107617035</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.9039298733979</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.31370140242732</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.9011733015786</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.31025608206541</v>
       </c>
     </row>
@@ -30145,27 +30161,28 @@
       <c r="P13" t="n">
         <v>337.0635655854621</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.8975587468581 -46.30717735592845, 169.9033206879473 -46.31396974184765)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.8975587468581</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.30717735592845</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.9033206879473</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.31396974184765</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.9004397174027</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.31057354888805</v>
       </c>
     </row>
@@ -30222,27 +30239,28 @@
       <c r="P14" t="n">
         <v>338.3070565641047</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.89679659938656 -46.30750579335814, 169.90255849567612 -46.31429819113459)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.8967965993866</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.30750579335814</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.9025584956761</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.31429819113459</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.8996775475313</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.31090199224636</v>
       </c>
     </row>
@@ -30299,27 +30317,28 @@
       <c r="P15" t="n">
         <v>331.1454739619736</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.89621436613322 -46.307764399137085, 169.90150908241796 -46.31473662299504)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.8962143661332</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.30776439913708</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.901509082418</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.31473662299504</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.8988617242756</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.31125051106606</v>
       </c>
     </row>
@@ -30376,27 +30395,28 @@
       <c r="P16" t="n">
         <v>328.2923626410754</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (169.89562172447796 -46.30796954769396, 169.90037055039778 -46.3151276967374)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>169.895621724478</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.30796954769396</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>169.9003705503978</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.3151276967374</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169.8979961374379</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.31154862221568</v>
       </c>
     </row>
@@ -30453,27 +30473,28 @@
       <c r="P17" t="n">
         <v>323.6335957575757</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (169.89483896486638 -46.308231732984694, 169.89952085504459 -46.31541097095904)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>169.8948389648664</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.30823173298469</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>169.8995208550446</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.31541097095904</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>169.8971799099555</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.31182135197187</v>
       </c>
     </row>
@@ -30530,27 +30551,28 @@
       <c r="P18" t="n">
         <v>320.8122142383586</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (169.89403043921507 -46.30850211485557, 169.89871226943362 -46.31568136223206)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>169.8940304392151</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-46.30850211485557</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>169.8987122694336</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-46.31568136223206</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>169.8963713543243</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-46.31209173854381</v>
       </c>
     </row>
@@ -30607,27 +30629,28 @@
       <c r="P19" t="n">
         <v>327.9378275936451</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (169.8932219135643 -46.30877249539094, 169.89790368382137 -46.31595175216882)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>169.8932219135643</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-46.30877249539094</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>169.8979036838214</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-46.31595175216882</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>169.8955627986928</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-46.31236212377988</v>
       </c>
     </row>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24748,6 +24748,264 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>313.9114285714285</v>
+      </c>
+      <c r="C424" t="n">
+        <v>305.2</v>
+      </c>
+      <c r="D424" t="n">
+        <v>299.7666666666667</v>
+      </c>
+      <c r="E424" t="n">
+        <v>307.2457142857143</v>
+      </c>
+      <c r="F424" t="n">
+        <v>329.1522222222222</v>
+      </c>
+      <c r="G424" t="n">
+        <v>338.6572727272728</v>
+      </c>
+      <c r="H424" t="n">
+        <v>327.6622222222222</v>
+      </c>
+      <c r="I424" t="n">
+        <v>327.16</v>
+      </c>
+      <c r="J424" t="n">
+        <v>333.37</v>
+      </c>
+      <c r="K424" t="n">
+        <v>354.82</v>
+      </c>
+      <c r="L424" t="n">
+        <v>344.6872727272727</v>
+      </c>
+      <c r="M424" t="n">
+        <v>342.5472727272727</v>
+      </c>
+      <c r="N424" t="n">
+        <v>327.6147368421053</v>
+      </c>
+      <c r="O424" t="n">
+        <v>315.855</v>
+      </c>
+      <c r="P424" t="n">
+        <v>314.9729411764706</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>325.7647368421053</v>
+      </c>
+      <c r="R424" t="n">
+        <v>335.005</v>
+      </c>
+      <c r="S424" t="n">
+        <v>337.2629411764706</v>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="n">
+        <v>308.2714285714285</v>
+      </c>
+      <c r="F425" t="n">
+        <v>321.17</v>
+      </c>
+      <c r="G425" t="n">
+        <v>322.3127272727273</v>
+      </c>
+      <c r="H425" t="n">
+        <v>320.41</v>
+      </c>
+      <c r="I425" t="n">
+        <v>317.35</v>
+      </c>
+      <c r="J425" t="n">
+        <v>322.48</v>
+      </c>
+      <c r="K425" t="n">
+        <v>330.96</v>
+      </c>
+      <c r="L425" t="n">
+        <v>328.1827272727273</v>
+      </c>
+      <c r="M425" t="n">
+        <v>332.4327272727273</v>
+      </c>
+      <c r="N425" t="n">
+        <v>327.8847368421053</v>
+      </c>
+      <c r="O425" t="n">
+        <v>309.24</v>
+      </c>
+      <c r="P425" t="n">
+        <v>307.7976470588235</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>313.0247368421053</v>
+      </c>
+      <c r="R425" t="n">
+        <v>320.87</v>
+      </c>
+      <c r="S425" t="n">
+        <v>321.5676470588235</v>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>310.0542857142857</v>
+      </c>
+      <c r="C426" t="n">
+        <v>305.34</v>
+      </c>
+      <c r="D426" t="n">
+        <v>307.7633333333333</v>
+      </c>
+      <c r="E426" t="n">
+        <v>309.5971428571428</v>
+      </c>
+      <c r="F426" t="n">
+        <v>326.8711111111111</v>
+      </c>
+      <c r="G426" t="n">
+        <v>334.12</v>
+      </c>
+      <c r="H426" t="n">
+        <v>323.4511111111111</v>
+      </c>
+      <c r="I426" t="n">
+        <v>327.47</v>
+      </c>
+      <c r="J426" t="n">
+        <v>327.38</v>
+      </c>
+      <c r="K426" t="n">
+        <v>334.36</v>
+      </c>
+      <c r="L426" t="n">
+        <v>340.17</v>
+      </c>
+      <c r="M426" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="N426" t="n">
+        <v>339.1742105263158</v>
+      </c>
+      <c r="O426" t="n">
+        <v>332.04</v>
+      </c>
+      <c r="P426" t="n">
+        <v>331.1717647058824</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>325.6542105263158</v>
+      </c>
+      <c r="R426" t="n">
+        <v>325.12</v>
+      </c>
+      <c r="S426" t="n">
+        <v>331.4017647058824</v>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>316.73</v>
+      </c>
+      <c r="C427" t="n">
+        <v>306.81</v>
+      </c>
+      <c r="D427" t="n">
+        <v>302.4933333333333</v>
+      </c>
+      <c r="E427" t="n">
+        <v>316.46</v>
+      </c>
+      <c r="F427" t="n">
+        <v>328.2744444444444</v>
+      </c>
+      <c r="G427" t="n">
+        <v>328.9718181818182</v>
+      </c>
+      <c r="H427" t="n">
+        <v>334.5744444444445</v>
+      </c>
+      <c r="I427" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="J427" t="n">
+        <v>328.17</v>
+      </c>
+      <c r="K427" t="n">
+        <v>333.46</v>
+      </c>
+      <c r="L427" t="n">
+        <v>341.2518181818182</v>
+      </c>
+      <c r="M427" t="n">
+        <v>346.3318181818182</v>
+      </c>
+      <c r="N427" t="n">
+        <v>329.7747368421053</v>
+      </c>
+      <c r="O427" t="n">
+        <v>315.15</v>
+      </c>
+      <c r="P427" t="n">
+        <v>306.6982352941176</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>311.7447368421053</v>
+      </c>
+      <c r="R427" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="S427" t="n">
+        <v>331.1982352941176</v>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24759,7 +25017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B434"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29107,6 +29365,46 @@
       </c>
       <c r="B434" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -29280,28 +29578,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8982135844852717</v>
+        <v>0.8690379096498825</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1821781107350858</v>
+        <v>0.1731880291511303</v>
       </c>
       <c r="M2" t="n">
-        <v>10.96043601912842</v>
+        <v>11.01046226448148</v>
       </c>
       <c r="N2" t="n">
-        <v>198.3681364822498</v>
+        <v>199.2709300782324</v>
       </c>
       <c r="O2" t="n">
-        <v>14.08432236503588</v>
+        <v>14.1163355754329</v>
       </c>
       <c r="P2" t="n">
-        <v>307.874019849819</v>
+        <v>308.1624298780351</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29358,28 +29656,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8946723705206062</v>
+        <v>0.8515743229513972</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K3" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1401372472447189</v>
+        <v>0.128471197572586</v>
       </c>
       <c r="M3" t="n">
-        <v>13.03221252736965</v>
+        <v>13.16801226187022</v>
       </c>
       <c r="N3" t="n">
-        <v>275.0625333354404</v>
+        <v>278.1494819523735</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5850092956091</v>
+        <v>16.67781406397054</v>
       </c>
       <c r="P3" t="n">
-        <v>307.971947546165</v>
+        <v>308.3887944316746</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29436,28 +29734,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9464812746804939</v>
+        <v>0.8939447128247157</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1309635656017981</v>
+        <v>0.1177790605007919</v>
       </c>
       <c r="M4" t="n">
-        <v>14.54458239917315</v>
+        <v>14.75467291210336</v>
       </c>
       <c r="N4" t="n">
-        <v>343.3424557047349</v>
+        <v>348.861604028785</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5295023059103</v>
+        <v>18.67783724173613</v>
       </c>
       <c r="P4" t="n">
-        <v>309.8190182055594</v>
+        <v>310.3204965567615</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29514,28 +29812,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9040072878450215</v>
+        <v>0.8381802463821882</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1798122967805609</v>
+        <v>0.1558170967738756</v>
       </c>
       <c r="M5" t="n">
-        <v>10.99597526862178</v>
+        <v>11.22906667862286</v>
       </c>
       <c r="N5" t="n">
-        <v>213.5828961949117</v>
+        <v>220.9260473434277</v>
       </c>
       <c r="O5" t="n">
-        <v>14.61447557030055</v>
+        <v>14.86358124219825</v>
       </c>
       <c r="P5" t="n">
-        <v>315.995191322513</v>
+        <v>316.618168013728</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29592,28 +29890,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8624202165022067</v>
+        <v>0.8248043854064345</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K6" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1680492099328769</v>
+        <v>0.1574585547151595</v>
       </c>
       <c r="M6" t="n">
-        <v>10.95791208312215</v>
+        <v>10.98526073038171</v>
       </c>
       <c r="N6" t="n">
-        <v>205.4770193987172</v>
+        <v>205.9781261860774</v>
       </c>
       <c r="O6" t="n">
-        <v>14.33446962390717</v>
+        <v>14.35193806376259</v>
       </c>
       <c r="P6" t="n">
-        <v>319.9071791680271</v>
+        <v>320.2686897688943</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29670,28 +29968,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.401504958315126</v>
+        <v>1.364261346361914</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K7" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2735565807619865</v>
+        <v>0.2660114212222261</v>
       </c>
       <c r="M7" t="n">
-        <v>13.17944494855856</v>
+        <v>13.20531783900011</v>
       </c>
       <c r="N7" t="n">
-        <v>297.7586596688291</v>
+        <v>297.2618702084733</v>
       </c>
       <c r="O7" t="n">
-        <v>17.25568485076234</v>
+        <v>17.2412838909541</v>
       </c>
       <c r="P7" t="n">
-        <v>310.3021366627013</v>
+        <v>310.6555181897073</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29748,28 +30046,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>1.084979565253462</v>
+        <v>1.054433465337094</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2103025094182821</v>
+        <v>0.2036068253763085</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77009823436315</v>
+        <v>11.77837002216843</v>
       </c>
       <c r="N8" t="n">
-        <v>247.9525396300076</v>
+        <v>247.1506704532647</v>
       </c>
       <c r="O8" t="n">
-        <v>15.74650880766933</v>
+        <v>15.72102638040102</v>
       </c>
       <c r="P8" t="n">
-        <v>311.5024476602334</v>
+        <v>311.7979629377045</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29826,28 +30124,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9527492549767173</v>
+        <v>0.9279692034302357</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1795785038529735</v>
+        <v>0.1747639959469224</v>
       </c>
       <c r="M9" t="n">
-        <v>11.97096165792695</v>
+        <v>11.95161112729235</v>
       </c>
       <c r="N9" t="n">
-        <v>234.8264643274207</v>
+        <v>233.5706858670968</v>
       </c>
       <c r="O9" t="n">
-        <v>15.32404856189841</v>
+        <v>15.28301952714505</v>
       </c>
       <c r="P9" t="n">
-        <v>312.3057273648258</v>
+        <v>312.5398353665551</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29904,28 +30202,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>1.072024881426564</v>
+        <v>1.034907260715813</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K10" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2402057288924425</v>
+        <v>0.2292615407020718</v>
       </c>
       <c r="M10" t="n">
-        <v>10.52395305840697</v>
+        <v>10.59062844117188</v>
       </c>
       <c r="N10" t="n">
-        <v>203.9604196455253</v>
+        <v>204.6894129094767</v>
       </c>
       <c r="O10" t="n">
-        <v>14.28147120031845</v>
+        <v>14.3069707803391</v>
       </c>
       <c r="P10" t="n">
-        <v>316.4282199768925</v>
+        <v>316.7849600414264</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29982,28 +30280,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.740361939053426</v>
+        <v>1.675227171513603</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K11" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2969765070991743</v>
+        <v>0.2808598467659579</v>
       </c>
       <c r="M11" t="n">
-        <v>14.89833210660307</v>
+        <v>15.06770605496212</v>
       </c>
       <c r="N11" t="n">
-        <v>391.6914496832443</v>
+        <v>397.5314180229111</v>
       </c>
       <c r="O11" t="n">
-        <v>19.79119626710938</v>
+        <v>19.93818993848015</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3966383761415</v>
+        <v>323.0378608186815</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30060,28 +30358,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.697799915668016</v>
+        <v>1.612983826155799</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2808535021882883</v>
+        <v>0.2576328162394607</v>
       </c>
       <c r="M12" t="n">
-        <v>14.51044887981677</v>
+        <v>14.76270749563348</v>
       </c>
       <c r="N12" t="n">
-        <v>398.0182427174352</v>
+        <v>409.1628507349754</v>
       </c>
       <c r="O12" t="n">
-        <v>19.95039455042018</v>
+        <v>20.22777424075559</v>
       </c>
       <c r="P12" t="n">
-        <v>330.9573690793378</v>
+        <v>331.8124085054047</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30138,28 +30436,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.699294486767258</v>
+        <v>1.606948260600693</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K13" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2718780657421649</v>
+        <v>0.2464643785315351</v>
       </c>
       <c r="M13" t="n">
-        <v>15.19344025414675</v>
+        <v>15.54247232241636</v>
       </c>
       <c r="N13" t="n">
-        <v>406.3299559944378</v>
+        <v>419.9571339681615</v>
       </c>
       <c r="O13" t="n">
-        <v>20.15762773727201</v>
+        <v>20.49285568114316</v>
       </c>
       <c r="P13" t="n">
-        <v>337.0635655854621</v>
+        <v>338.0063734394751</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30216,28 +30514,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.619455521218856</v>
+        <v>1.504375542101553</v>
       </c>
       <c r="J14" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K14" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2284592348516152</v>
+        <v>0.1981716556649331</v>
       </c>
       <c r="M14" t="n">
-        <v>16.19559196205</v>
+        <v>16.64014765924133</v>
       </c>
       <c r="N14" t="n">
-        <v>468.9457496980518</v>
+        <v>491.2355786947562</v>
       </c>
       <c r="O14" t="n">
-        <v>21.65515526838937</v>
+        <v>22.16383492752904</v>
       </c>
       <c r="P14" t="n">
-        <v>338.3070565641047</v>
+        <v>339.4636481071234</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30294,28 +30592,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.693447454236494</v>
+        <v>1.5599179480981</v>
       </c>
       <c r="J15" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K15" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2300834498799866</v>
+        <v>0.1950147356751937</v>
       </c>
       <c r="M15" t="n">
-        <v>16.98522201701686</v>
+        <v>17.54129358467565</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4959063193842</v>
+        <v>548.1464683135937</v>
       </c>
       <c r="O15" t="n">
-        <v>22.7265462910532</v>
+        <v>23.41252802056185</v>
       </c>
       <c r="P15" t="n">
-        <v>331.1454739619736</v>
+        <v>332.4585472733175</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30372,28 +30670,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.84680843056261</v>
+        <v>1.699009726564839</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K16" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2457778859134031</v>
+        <v>0.2073764004169519</v>
       </c>
       <c r="M16" t="n">
-        <v>17.62211704259144</v>
+        <v>18.22183218400191</v>
       </c>
       <c r="N16" t="n">
-        <v>548.8503484473542</v>
+        <v>586.6988554735807</v>
       </c>
       <c r="O16" t="n">
-        <v>23.42755532374973</v>
+        <v>24.22186729947922</v>
       </c>
       <c r="P16" t="n">
-        <v>328.2923626410754</v>
+        <v>329.7794953358981</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30450,28 +30748,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.063338287643783</v>
+        <v>1.918181909836546</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K17" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2919545282205547</v>
+        <v>0.2536235666162774</v>
       </c>
       <c r="M17" t="n">
-        <v>17.25364424364041</v>
+        <v>17.94449624079483</v>
       </c>
       <c r="N17" t="n">
-        <v>531.2976496121171</v>
+        <v>565.2419576433066</v>
       </c>
       <c r="O17" t="n">
-        <v>23.04989478527217</v>
+        <v>23.77481772050643</v>
       </c>
       <c r="P17" t="n">
-        <v>323.6335957575757</v>
+        <v>325.1140099305383</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30528,28 +30826,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.230285623918881</v>
+        <v>2.108781060326507</v>
       </c>
       <c r="J18" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K18" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.339231983160495</v>
+        <v>0.3071398358750571</v>
       </c>
       <c r="M18" t="n">
-        <v>17.07387537219301</v>
+        <v>17.58706742101105</v>
       </c>
       <c r="N18" t="n">
-        <v>517.0190943942088</v>
+        <v>542.4117817328472</v>
       </c>
       <c r="O18" t="n">
-        <v>22.73805388317586</v>
+        <v>23.28973554450216</v>
       </c>
       <c r="P18" t="n">
-        <v>320.8122142383586</v>
+        <v>322.0235407665635</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30606,28 +30904,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>2.068854468659845</v>
+        <v>1.953114694520381</v>
       </c>
       <c r="J19" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K19" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3121072549640798</v>
+        <v>0.2811207490689762</v>
       </c>
       <c r="M19" t="n">
-        <v>16.87691485261226</v>
+        <v>17.39649965247592</v>
       </c>
       <c r="N19" t="n">
-        <v>502.9022953693565</v>
+        <v>526.5742317577758</v>
       </c>
       <c r="O19" t="n">
-        <v>22.42548316913944</v>
+        <v>22.94720531476057</v>
       </c>
       <c r="P19" t="n">
-        <v>327.9378275936451</v>
+        <v>329.0992556082997</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30665,7 +30963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66535,6 +66833,402 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-46.30618505596957,169.90814786991766</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-46.30645399452951,169.90733386159067</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-46.30674813074327,169.9065419330354</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-46.30714152839134,169.90583697348995</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-46.307645835659585,169.9052291866178</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-46.30805464512943,169.90453743006958</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-46.308261714596675,169.9036867100522</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-46.30853077387405,169.90288048581544</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-46.30885564927184,169.90210826463613</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-46.309303618054024,169.90142372031005</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-46.30952192657295,169.90058572548378</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-46.30983321852192,169.8998115064277</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-46.310045889905965,169.8989511380348</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-46.31027825591088,169.89812322176823</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-46.310543343824826,169.89732906862025</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-46.31090157315242,169.89657993100852</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>-46.31124769202984,169.89582076976498</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>-46.31153658555567,169.89502429122905</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-46.30714941355835,169.90584388198127</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-46.30758447223897,169.9051754240016</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-46.30792628409395,169.90443406457152</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-46.30820303341279,169.9036456261441</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-46.308450622488614,169.9028272754137</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-46.308766673638424,169.9020491967549</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-46.3091109660036,169.90128733722787</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-46.30939210961506,169.90048186340664</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-46.309754798262105,169.89974498513098</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-46.31004798328284,169.89895291375427</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-46.31022560811299,169.8980832425598</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-46.31048471127971,169.89729017245023</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-46.31079716154305,169.89651184225863</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>-46.31113184729382,169.895745226123</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>-46.311407952921925,169.89494040960156</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-46.306155404562595,169.90812189046662</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-46.30645507077008,169.90733480454176</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-46.30680960481197,169.90659579319512</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-46.30715960497141,169.90585281106482</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-46.30762829959531,169.90521382265098</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-46.308019011903085,169.90450873558967</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-46.308227640492724,169.90366285405716</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-46.30853330669015,169.90288216728828</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-46.3088067085916,169.90207577456644</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-46.309138418525926,169.90130677147434</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-46.30948639584804,169.9005572985199</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>-46.309841380542274,169.89981843001038</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>-46.31013551334607,169.89902716179273</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-46.31040706985795,169.89822103969362</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>-46.31067571163122,169.89741688025714</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>-46.31090066732599,169.8965793403011</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>-46.31116667857742,169.89576793995528</t>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>-46.311488549599105,169.89499296682587</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-46.306206723457294,169.90816685417838</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-46.306466371295706,169.90734470553045</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-46.30676909189141,169.90656029801195</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-46.307212363095324,169.9058990345193</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-46.307639087734444,169.9052232745203</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-46.30797858092734,169.90447617766156</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-46.3083176446664,169.90372586793666</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-46.30858551537853,169.90291682735892</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>-46.30881316320599,169.90208005956404</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>-46.30913115168205,169.90130162711316</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>-46.30949490491738,169.90056410634253</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-46.309862560912876,169.89983639665707</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-46.310062636920236,169.89896534379432</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-46.310272644921675,169.89811896094199</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-46.31047572749225,169.89728421271462</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>-46.31078667120668,169.8965050013306</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>-46.31114848435448,169.8957560753147</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>-46.3114868815499,169.8949918790866</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T427"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25006,6 +25006,72 @@
         </is>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>314.1942857142857</v>
+      </c>
+      <c r="C428" t="n">
+        <v>306.9</v>
+      </c>
+      <c r="D428" t="n">
+        <v>307.5133333333333</v>
+      </c>
+      <c r="E428" t="n">
+        <v>314.2971428571428</v>
+      </c>
+      <c r="F428" t="n">
+        <v>327.2377777777777</v>
+      </c>
+      <c r="G428" t="n">
+        <v>321.7927272727272</v>
+      </c>
+      <c r="H428" t="n">
+        <v>329.1777777777777</v>
+      </c>
+      <c r="I428" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="J428" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="K428" t="n">
+        <v>333.57</v>
+      </c>
+      <c r="L428" t="n">
+        <v>341.4627272727272</v>
+      </c>
+      <c r="M428" t="n">
+        <v>341.6927272727273</v>
+      </c>
+      <c r="N428" t="n">
+        <v>327.3763157894737</v>
+      </c>
+      <c r="O428" t="n">
+        <v>311.89</v>
+      </c>
+      <c r="P428" t="n">
+        <v>304.5441176470588</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>308.2263157894737</v>
+      </c>
+      <c r="R428" t="n">
+        <v>319.72</v>
+      </c>
+      <c r="S428" t="n">
+        <v>325.3441176470589</v>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25017,7 +25083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29405,6 +29471,16 @@
       </c>
       <c r="B438" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -29578,28 +29654,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8690379096498825</v>
+        <v>0.8598989791472318</v>
       </c>
       <c r="J2" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1731880291511303</v>
+        <v>0.1704666941798971</v>
       </c>
       <c r="M2" t="n">
-        <v>11.01046226448148</v>
+        <v>11.0237143461833</v>
       </c>
       <c r="N2" t="n">
-        <v>199.2709300782324</v>
+        <v>199.4615334320803</v>
       </c>
       <c r="O2" t="n">
-        <v>14.1163355754329</v>
+        <v>14.12308512443653</v>
       </c>
       <c r="P2" t="n">
-        <v>308.1624298780351</v>
+        <v>308.2531314451754</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29656,28 +29732,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8515743229513972</v>
+        <v>0.838229531925613</v>
       </c>
       <c r="J3" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.128471197572586</v>
+        <v>0.1250041289703712</v>
       </c>
       <c r="M3" t="n">
-        <v>13.16801226187022</v>
+        <v>13.20617531371479</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1494819523735</v>
+        <v>278.9466806951396</v>
       </c>
       <c r="O3" t="n">
-        <v>16.67781406397054</v>
+        <v>16.7016969405848</v>
       </c>
       <c r="P3" t="n">
-        <v>308.3887944316746</v>
+        <v>308.5183741692827</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29734,28 +29810,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8939447128247157</v>
+        <v>0.879278878889078</v>
       </c>
       <c r="J4" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1177790605007919</v>
+        <v>0.1144024822846404</v>
       </c>
       <c r="M4" t="n">
-        <v>14.75467291210336</v>
+        <v>14.80490490523543</v>
       </c>
       <c r="N4" t="n">
-        <v>348.861604028785</v>
+        <v>349.8318868057395</v>
       </c>
       <c r="O4" t="n">
-        <v>18.67783724173613</v>
+        <v>18.70379338010714</v>
       </c>
       <c r="P4" t="n">
-        <v>310.3204965567615</v>
+        <v>310.4610800124941</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29812,28 +29888,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8381802463821882</v>
+        <v>0.8245468270057954</v>
       </c>
       <c r="J5" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1558170967738756</v>
+        <v>0.1513447373530286</v>
       </c>
       <c r="M5" t="n">
-        <v>11.22906667862286</v>
+        <v>11.27160675413917</v>
       </c>
       <c r="N5" t="n">
-        <v>220.9260473434277</v>
+        <v>221.9808631654515</v>
       </c>
       <c r="O5" t="n">
-        <v>14.86358124219825</v>
+        <v>14.89902222179199</v>
       </c>
       <c r="P5" t="n">
-        <v>316.618168013728</v>
+        <v>316.7477649206473</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29890,28 +29966,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8248043854064345</v>
+        <v>0.816267801301334</v>
       </c>
       <c r="J6" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K6" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1574585547151595</v>
+        <v>0.1551703146932971</v>
       </c>
       <c r="M6" t="n">
-        <v>10.98526073038171</v>
+        <v>10.98911782507295</v>
       </c>
       <c r="N6" t="n">
-        <v>205.9781261860774</v>
+        <v>205.9621067645139</v>
       </c>
       <c r="O6" t="n">
-        <v>14.35193806376259</v>
+        <v>14.35137996028653</v>
       </c>
       <c r="P6" t="n">
-        <v>320.2686897688943</v>
+        <v>320.3510544661376</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29968,28 +30044,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.364261346361914</v>
+        <v>1.349663426501793</v>
       </c>
       <c r="J7" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K7" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2660114212222261</v>
+        <v>0.2619099377042451</v>
       </c>
       <c r="M7" t="n">
-        <v>13.20531783900011</v>
+        <v>13.24096676616372</v>
       </c>
       <c r="N7" t="n">
-        <v>297.2618702084733</v>
+        <v>298.1459733769864</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2412838909541</v>
+        <v>17.26690398933713</v>
       </c>
       <c r="P7" t="n">
-        <v>310.6555181897073</v>
+        <v>310.7945180160291</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30046,28 +30122,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>1.054433465337094</v>
+        <v>1.048629037012593</v>
       </c>
       <c r="J8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2036068253763085</v>
+        <v>0.2026559297428305</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77837002216843</v>
+        <v>11.77129981555316</v>
       </c>
       <c r="N8" t="n">
-        <v>247.1506704532647</v>
+        <v>246.6610469146457</v>
       </c>
       <c r="O8" t="n">
-        <v>15.72102638040102</v>
+        <v>15.70544640927617</v>
       </c>
       <c r="P8" t="n">
-        <v>311.7979629377045</v>
+        <v>311.854377657333</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30124,28 +30200,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9279692034302357</v>
+        <v>0.9256178511115021</v>
       </c>
       <c r="J9" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1747639959469224</v>
+        <v>0.1749618156322916</v>
       </c>
       <c r="M9" t="n">
-        <v>11.95161112729235</v>
+        <v>11.92622926190531</v>
       </c>
       <c r="N9" t="n">
-        <v>233.5706858670968</v>
+        <v>232.8793004269413</v>
       </c>
       <c r="O9" t="n">
-        <v>15.28301952714505</v>
+        <v>15.26038336435036</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5398353665551</v>
+        <v>312.5621542477004</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30202,28 +30278,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>1.034907260715813</v>
+        <v>1.027877598864282</v>
       </c>
       <c r="J10" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K10" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2292615407020718</v>
+        <v>0.2275727606559786</v>
       </c>
       <c r="M10" t="n">
-        <v>10.59062844117188</v>
+        <v>10.59606337542249</v>
       </c>
       <c r="N10" t="n">
-        <v>204.6894129094767</v>
+        <v>204.5148859414987</v>
       </c>
       <c r="O10" t="n">
-        <v>14.3069707803391</v>
+        <v>14.30087011134283</v>
       </c>
       <c r="P10" t="n">
-        <v>316.7849600414264</v>
+        <v>316.8527735758304</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30280,28 +30356,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.675227171513603</v>
+        <v>1.656760089491979</v>
       </c>
       <c r="J11" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K11" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2808598467659579</v>
+        <v>0.2760493181732875</v>
       </c>
       <c r="M11" t="n">
-        <v>15.06770605496212</v>
+        <v>15.12514381092339</v>
       </c>
       <c r="N11" t="n">
-        <v>397.5314180229111</v>
+        <v>399.4672891268404</v>
       </c>
       <c r="O11" t="n">
-        <v>19.93818993848015</v>
+        <v>19.98667779113979</v>
       </c>
       <c r="P11" t="n">
-        <v>323.0378608186815</v>
+        <v>323.2202451747545</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30358,28 +30434,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.612983826155799</v>
+        <v>1.594221702983361</v>
       </c>
       <c r="J12" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K12" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2576328162394607</v>
+        <v>0.2528757872958124</v>
       </c>
       <c r="M12" t="n">
-        <v>14.76270749563348</v>
+        <v>14.81696501689097</v>
       </c>
       <c r="N12" t="n">
-        <v>409.1628507349754</v>
+        <v>411.0329287280891</v>
       </c>
       <c r="O12" t="n">
-        <v>20.22777424075559</v>
+        <v>20.27394704363433</v>
       </c>
       <c r="P12" t="n">
-        <v>331.8124085054047</v>
+        <v>332.00230567075</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30436,28 +30512,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.606948260600693</v>
+        <v>1.58492105916502</v>
       </c>
       <c r="J13" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K13" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2464643785315351</v>
+        <v>0.2406251387781323</v>
       </c>
       <c r="M13" t="n">
-        <v>15.54247232241636</v>
+        <v>15.62399089437891</v>
       </c>
       <c r="N13" t="n">
-        <v>419.9571339681615</v>
+        <v>422.9477425684506</v>
       </c>
       <c r="O13" t="n">
-        <v>20.49285568114316</v>
+        <v>20.56569334032895</v>
       </c>
       <c r="P13" t="n">
-        <v>338.0063734394751</v>
+        <v>338.2321614845724</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30514,28 +30590,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.504375542101553</v>
+        <v>1.474437535867502</v>
       </c>
       <c r="J14" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K14" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1981716556649331</v>
+        <v>0.1904072033890339</v>
       </c>
       <c r="M14" t="n">
-        <v>16.64014765924133</v>
+        <v>16.75865243502778</v>
       </c>
       <c r="N14" t="n">
-        <v>491.2355786947562</v>
+        <v>497.4684797100972</v>
       </c>
       <c r="O14" t="n">
-        <v>22.16383492752904</v>
+        <v>22.30400142822129</v>
       </c>
       <c r="P14" t="n">
-        <v>339.4636481071234</v>
+        <v>339.7657021242737</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30592,28 +30668,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5599179480981</v>
+        <v>1.524129086476325</v>
       </c>
       <c r="J15" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K15" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1950147356751937</v>
+        <v>0.1857847608868144</v>
       </c>
       <c r="M15" t="n">
-        <v>17.54129358467565</v>
+        <v>17.69646053360273</v>
       </c>
       <c r="N15" t="n">
-        <v>548.1464683135937</v>
+        <v>557.4558804251528</v>
       </c>
       <c r="O15" t="n">
-        <v>23.41252802056185</v>
+        <v>23.61050360380212</v>
       </c>
       <c r="P15" t="n">
-        <v>332.4585472733175</v>
+        <v>332.8118225342315</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30670,28 +30746,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.699009726564839</v>
+        <v>1.656994956805562</v>
       </c>
       <c r="J16" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K16" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2073764004169519</v>
+        <v>0.1964134025956867</v>
       </c>
       <c r="M16" t="n">
-        <v>18.22183218400191</v>
+        <v>18.4048482185024</v>
       </c>
       <c r="N16" t="n">
-        <v>586.6988554735807</v>
+        <v>599.3732125123563</v>
       </c>
       <c r="O16" t="n">
-        <v>24.22186729947922</v>
+        <v>24.48209983870575</v>
       </c>
       <c r="P16" t="n">
-        <v>329.7794953358981</v>
+        <v>330.2037838267679</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30748,28 +30824,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.918181909836546</v>
+        <v>1.876493817296059</v>
       </c>
       <c r="J17" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K17" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2536235666162774</v>
+        <v>0.242206171514712</v>
       </c>
       <c r="M17" t="n">
-        <v>17.94449624079483</v>
+        <v>18.15208817348941</v>
       </c>
       <c r="N17" t="n">
-        <v>565.2419576433066</v>
+        <v>577.118352532727</v>
       </c>
       <c r="O17" t="n">
-        <v>23.77481772050643</v>
+        <v>24.02328771281581</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1140099305383</v>
+        <v>325.5406509790304</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30826,28 +30902,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.108781060326507</v>
+        <v>2.075839651419724</v>
       </c>
       <c r="J18" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K18" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3071398358750571</v>
+        <v>0.2981472914591194</v>
       </c>
       <c r="M18" t="n">
-        <v>17.58706742101105</v>
+        <v>17.73123753172613</v>
       </c>
       <c r="N18" t="n">
-        <v>542.4117817328472</v>
+        <v>550.2459738478505</v>
       </c>
       <c r="O18" t="n">
-        <v>23.28973554450216</v>
+        <v>23.45732239297253</v>
       </c>
       <c r="P18" t="n">
-        <v>322.0235407665635</v>
+        <v>322.353127900524</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30904,28 +30980,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>1.953114694520381</v>
+        <v>1.922308945591879</v>
       </c>
       <c r="J19" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K19" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2811207490689762</v>
+        <v>0.272735209979123</v>
       </c>
       <c r="M19" t="n">
-        <v>17.39649965247592</v>
+        <v>17.53946446527744</v>
       </c>
       <c r="N19" t="n">
-        <v>526.5742317577758</v>
+        <v>533.5404231031015</v>
       </c>
       <c r="O19" t="n">
-        <v>22.94720531476057</v>
+        <v>23.09849395746618</v>
       </c>
       <c r="P19" t="n">
-        <v>329.0992556082997</v>
+        <v>329.4095500381027</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30963,7 +31039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T427"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67229,6 +67305,108 @@
         </is>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-46.306187230405875,169.90814977507847</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-46.30646706316459,169.90734531171358</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-46.30680768294689,169.90659410936172</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-46.307195736161354,169.90588446700153</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-46.30763111834908,169.90521629226018</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>-46.30792220029969,169.9044307760168</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-46.30827397767679,169.9036952956997</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-46.30857440367097,169.90290945056233</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-46.308837919510495,169.90209649443744</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>-46.30913203985188,169.90130225586833</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>-46.30949656382833,169.90056543358216</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>-46.309826593047426,169.89980588624985</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>-46.310044041368464,169.89894957000192</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>-46.310246699069054,169.89809925840905</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>-46.31045812522837,169.89727253559238</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>-46.31075783572021,169.89648619723027</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>-46.31112242235758,169.89573908003206</t>
+        </is>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>-46.31143890343692,169.89496059246338</t>
+        </is>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T428"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25072,6 +25072,128 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>311.3085714285714</v>
+      </c>
+      <c r="C429" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="D429" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>304.3242857142857</v>
+      </c>
+      <c r="F429" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="G429" t="n">
+        <v>299.2381818181818</v>
+      </c>
+      <c r="H429" t="n">
+        <v>302.33</v>
+      </c>
+      <c r="I429" t="n">
+        <v>304.93</v>
+      </c>
+      <c r="J429" t="n">
+        <v>314.61</v>
+      </c>
+      <c r="K429" t="n">
+        <v>296.14</v>
+      </c>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="n">
+        <v>320.8881818181818</v>
+      </c>
+      <c r="N429" t="n">
+        <v>303.9642105263157</v>
+      </c>
+      <c r="O429" t="n">
+        <v>286.33</v>
+      </c>
+      <c r="P429" t="n">
+        <v>292.6829411764706</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>287.1042105263158</v>
+      </c>
+      <c r="R429" t="n">
+        <v>294.79</v>
+      </c>
+      <c r="S429" t="n">
+        <v>317.6929411764706</v>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="n">
+        <v>277.46</v>
+      </c>
+      <c r="D430" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="E430" t="n">
+        <v>324.7757142857143</v>
+      </c>
+      <c r="F430" t="n">
+        <v>335.02</v>
+      </c>
+      <c r="G430" t="n">
+        <v>322.4718181818182</v>
+      </c>
+      <c r="H430" t="n">
+        <v>330.04</v>
+      </c>
+      <c r="I430" t="n">
+        <v>336.08</v>
+      </c>
+      <c r="J430" t="n">
+        <v>336.87</v>
+      </c>
+      <c r="K430" t="n">
+        <v>324.56</v>
+      </c>
+      <c r="L430" t="n">
+        <v>346.8018181818182</v>
+      </c>
+      <c r="M430" t="n">
+        <v>349.7018181818182</v>
+      </c>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="n">
+        <v>322.1757894736842</v>
+      </c>
+      <c r="R430" t="n">
+        <v>333.32</v>
+      </c>
+      <c r="S430" t="n">
+        <v>341.7070588235294</v>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25083,7 +25205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29481,6 +29603,26 @@
       </c>
       <c r="B439" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -29654,28 +29796,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8598989791472318</v>
+        <v>0.849193051053414</v>
       </c>
       <c r="J2" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1704666941798971</v>
+        <v>0.1670367711914426</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0237143461833</v>
+        <v>11.04471315641826</v>
       </c>
       <c r="N2" t="n">
-        <v>199.4615334320803</v>
+        <v>199.9418273246668</v>
       </c>
       <c r="O2" t="n">
-        <v>14.12308512443653</v>
+        <v>14.14007875949306</v>
       </c>
       <c r="P2" t="n">
-        <v>308.2531314451754</v>
+        <v>308.3598361125736</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29732,28 +29874,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.838229531925613</v>
+        <v>0.7903903543019788</v>
       </c>
       <c r="J3" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K3" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1250041289703712</v>
+        <v>0.1100026763409341</v>
       </c>
       <c r="M3" t="n">
-        <v>13.20617531371479</v>
+        <v>13.40474090179174</v>
       </c>
       <c r="N3" t="n">
-        <v>278.9466806951396</v>
+        <v>288.4735743539137</v>
       </c>
       <c r="O3" t="n">
-        <v>16.7016969405848</v>
+        <v>16.98450983555056</v>
       </c>
       <c r="P3" t="n">
-        <v>308.5183741692827</v>
+        <v>308.9852485146896</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29810,28 +29952,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.879278878889078</v>
+        <v>0.8254739484868703</v>
       </c>
       <c r="J4" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1144024822846404</v>
+        <v>0.09974789028827424</v>
       </c>
       <c r="M4" t="n">
-        <v>14.80490490523543</v>
+        <v>15.06422710830975</v>
       </c>
       <c r="N4" t="n">
-        <v>349.8318868057395</v>
+        <v>361.616871073498</v>
       </c>
       <c r="O4" t="n">
-        <v>18.70379338010714</v>
+        <v>19.01622652035619</v>
       </c>
       <c r="P4" t="n">
-        <v>310.4610800124941</v>
+        <v>310.9795410012612</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29888,28 +30030,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8245468270057954</v>
+        <v>0.7979998722895545</v>
       </c>
       <c r="J5" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1513447373530286</v>
+        <v>0.1424871686280114</v>
       </c>
       <c r="M5" t="n">
-        <v>11.27160675413917</v>
+        <v>11.35426277196384</v>
       </c>
       <c r="N5" t="n">
-        <v>221.9808631654515</v>
+        <v>224.5642076804788</v>
       </c>
       <c r="O5" t="n">
-        <v>14.89902222179199</v>
+        <v>14.98546654864235</v>
       </c>
       <c r="P5" t="n">
-        <v>316.7477649206473</v>
+        <v>317.0013125121478</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29966,28 +30108,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.816267801301334</v>
+        <v>0.7969874947011504</v>
       </c>
       <c r="J6" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K6" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1551703146932971</v>
+        <v>0.1492869434756761</v>
       </c>
       <c r="M6" t="n">
-        <v>10.98911782507295</v>
+        <v>11.00745726636026</v>
       </c>
       <c r="N6" t="n">
-        <v>205.9621067645139</v>
+        <v>206.9024875512439</v>
       </c>
       <c r="O6" t="n">
-        <v>14.35137996028653</v>
+        <v>14.38410537889805</v>
       </c>
       <c r="P6" t="n">
-        <v>320.3510544661376</v>
+        <v>320.5379097908504</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30044,28 +30186,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.349663426501793</v>
+        <v>1.307734387655165</v>
       </c>
       <c r="J7" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2619099377042451</v>
+        <v>0.2470423357793432</v>
       </c>
       <c r="M7" t="n">
-        <v>13.24096676616372</v>
+        <v>13.38254670666756</v>
       </c>
       <c r="N7" t="n">
-        <v>298.1459733769864</v>
+        <v>304.7845849964472</v>
       </c>
       <c r="O7" t="n">
-        <v>17.26690398933713</v>
+        <v>17.45808079361667</v>
       </c>
       <c r="P7" t="n">
-        <v>310.7945180160291</v>
+        <v>311.1956749893682</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30122,28 +30264,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>1.048629037012593</v>
+        <v>1.021807667817366</v>
       </c>
       <c r="J8" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K8" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2026559297428305</v>
+        <v>0.1935998528204265</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77129981555316</v>
+        <v>11.83830712616836</v>
       </c>
       <c r="N8" t="n">
-        <v>246.6610469146457</v>
+        <v>249.5321447320374</v>
       </c>
       <c r="O8" t="n">
-        <v>15.70544640927617</v>
+        <v>15.79658648987297</v>
       </c>
       <c r="P8" t="n">
-        <v>311.854377657333</v>
+        <v>312.1162612797702</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30200,28 +30342,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9256178511115021</v>
+        <v>0.906630518846535</v>
       </c>
       <c r="J9" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K9" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1749618156322916</v>
+        <v>0.1690586193542976</v>
       </c>
       <c r="M9" t="n">
-        <v>11.92622926190531</v>
+        <v>11.95060886742362</v>
       </c>
       <c r="N9" t="n">
-        <v>232.8793004269413</v>
+        <v>234.5072861733051</v>
       </c>
       <c r="O9" t="n">
-        <v>15.26038336435036</v>
+        <v>15.3136307312572</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5621542477004</v>
+        <v>312.7431472155491</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30278,28 +30420,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>1.027877598864282</v>
+        <v>1.007749500774441</v>
       </c>
       <c r="J10" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K10" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2275727606559786</v>
+        <v>0.2206563990329692</v>
       </c>
       <c r="M10" t="n">
-        <v>10.59606337542249</v>
+        <v>10.64024998118913</v>
       </c>
       <c r="N10" t="n">
-        <v>204.5148859414987</v>
+        <v>205.8769799606267</v>
       </c>
       <c r="O10" t="n">
-        <v>14.30087011134283</v>
+        <v>14.34841384824911</v>
       </c>
       <c r="P10" t="n">
-        <v>316.8527735758304</v>
+        <v>317.0478196051438</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30356,28 +30498,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.656760089491979</v>
+        <v>1.594205615323735</v>
       </c>
       <c r="J11" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2760493181732875</v>
+        <v>0.2542560892715724</v>
       </c>
       <c r="M11" t="n">
-        <v>15.12514381092339</v>
+        <v>15.38725648937701</v>
       </c>
       <c r="N11" t="n">
-        <v>399.4672891268404</v>
+        <v>416.2349422029953</v>
       </c>
       <c r="O11" t="n">
-        <v>19.98667779113979</v>
+        <v>20.40183673601461</v>
       </c>
       <c r="P11" t="n">
-        <v>323.2202451747545</v>
+        <v>323.840917693303</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30434,28 +30576,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.594221702983361</v>
+        <v>1.578655427652102</v>
       </c>
       <c r="J12" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K12" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2528757872958124</v>
+        <v>0.2493510748859371</v>
       </c>
       <c r="M12" t="n">
-        <v>14.81696501689097</v>
+        <v>14.85304028084916</v>
       </c>
       <c r="N12" t="n">
-        <v>411.0329287280891</v>
+        <v>411.9046616221165</v>
       </c>
       <c r="O12" t="n">
-        <v>20.27394704363433</v>
+        <v>20.29543450192965</v>
       </c>
       <c r="P12" t="n">
-        <v>332.00230567075</v>
+        <v>332.1607337080261</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30512,28 +30654,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.58492105916502</v>
+        <v>1.534063871902847</v>
       </c>
       <c r="J13" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K13" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2406251387781323</v>
+        <v>0.2258229130982263</v>
       </c>
       <c r="M13" t="n">
-        <v>15.62399089437891</v>
+        <v>15.82387637752421</v>
       </c>
       <c r="N13" t="n">
-        <v>422.9477425684506</v>
+        <v>433.0521382594262</v>
       </c>
       <c r="O13" t="n">
-        <v>20.56569334032895</v>
+        <v>20.80990481139753</v>
       </c>
       <c r="P13" t="n">
-        <v>338.2321614845724</v>
+        <v>338.7558408093332</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30590,28 +30732,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.474437535867502</v>
+        <v>1.430950519130006</v>
       </c>
       <c r="J14" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K14" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1904072033890339</v>
+        <v>0.1775156806921742</v>
       </c>
       <c r="M14" t="n">
-        <v>16.75865243502778</v>
+        <v>16.95739705470594</v>
       </c>
       <c r="N14" t="n">
-        <v>497.4684797100972</v>
+        <v>512.2430981917081</v>
       </c>
       <c r="O14" t="n">
-        <v>22.30400142822129</v>
+        <v>22.63278812236151</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7657021242737</v>
+        <v>340.2062424760613</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30668,28 +30810,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.524129086476325</v>
+        <v>1.473602116659382</v>
       </c>
       <c r="J15" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K15" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1857847608868144</v>
+        <v>0.1711924387858106</v>
       </c>
       <c r="M15" t="n">
-        <v>17.69646053360273</v>
+        <v>17.94367704072396</v>
       </c>
       <c r="N15" t="n">
-        <v>557.4558804251528</v>
+        <v>577.6248347669776</v>
       </c>
       <c r="O15" t="n">
-        <v>23.61050360380212</v>
+        <v>24.03382688559975</v>
       </c>
       <c r="P15" t="n">
-        <v>332.8118225342315</v>
+        <v>333.3125937732805</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30746,28 +30888,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.656994956805562</v>
+        <v>1.608141795176953</v>
       </c>
       <c r="J16" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K16" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1964134025956867</v>
+        <v>0.1832547595601342</v>
       </c>
       <c r="M16" t="n">
-        <v>18.4048482185024</v>
+        <v>18.63168042336996</v>
       </c>
       <c r="N16" t="n">
-        <v>599.3732125123563</v>
+        <v>617.112744788733</v>
       </c>
       <c r="O16" t="n">
-        <v>24.48209983870575</v>
+        <v>24.84175406022556</v>
       </c>
       <c r="P16" t="n">
-        <v>330.2037838267679</v>
+        <v>330.6990945559452</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30824,28 +30966,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.876493817296059</v>
+        <v>1.79010726186723</v>
       </c>
       <c r="J17" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K17" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L17" t="n">
-        <v>0.242206171514712</v>
+        <v>0.2184225136753722</v>
       </c>
       <c r="M17" t="n">
-        <v>18.15208817348941</v>
+        <v>18.58500431860434</v>
       </c>
       <c r="N17" t="n">
-        <v>577.118352532727</v>
+        <v>604.897045974238</v>
       </c>
       <c r="O17" t="n">
-        <v>24.02328771281581</v>
+        <v>24.59465482527124</v>
       </c>
       <c r="P17" t="n">
-        <v>325.5406509790304</v>
+        <v>326.4285755275708</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30902,28 +31044,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.075839651419724</v>
+        <v>2.004411414935717</v>
       </c>
       <c r="J18" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K18" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2981472914591194</v>
+        <v>0.2773614625727682</v>
       </c>
       <c r="M18" t="n">
-        <v>17.73123753172613</v>
+        <v>18.06045555554823</v>
       </c>
       <c r="N18" t="n">
-        <v>550.2459738478505</v>
+        <v>571.4911563600658</v>
       </c>
       <c r="O18" t="n">
-        <v>23.45732239297253</v>
+        <v>23.90588120860776</v>
       </c>
       <c r="P18" t="n">
-        <v>322.353127900524</v>
+        <v>323.0709814447357</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30980,28 +31122,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>1.922308945591879</v>
+        <v>1.86650820074496</v>
       </c>
       <c r="J19" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K19" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L19" t="n">
-        <v>0.272735209979123</v>
+        <v>0.2582075963740067</v>
       </c>
       <c r="M19" t="n">
-        <v>17.53946446527744</v>
+        <v>17.78583622199587</v>
       </c>
       <c r="N19" t="n">
-        <v>533.5404231031015</v>
+        <v>545.2734484723391</v>
       </c>
       <c r="O19" t="n">
-        <v>23.09849395746618</v>
+        <v>23.35109094822636</v>
       </c>
       <c r="P19" t="n">
-        <v>329.4095500381027</v>
+        <v>329.9741788434113</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31039,7 +31181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T428"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34512,7 +34654,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-46.30974271733815,169.89973473730444</t>
+          <t>-46.309742717338146,169.89973473730444</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -67407,6 +67549,190 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-46.30616504676145,169.9081303385962</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-46.30640056686346,169.90728705084985</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-46.30665921239566,169.90646402797034</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-46.30711906994007,169.90581729680886</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-46.30753934653517,169.90513588789918</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-46.30774506921127,169.90428813829155</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>-46.30805673946504,169.90354320314356</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-46.30834914639122,169.9027599083324</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>-46.30870237258993,169.9020065096139</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>-46.308829819708855,169.90108830876918</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>-46.309665290860096,169.89966905924464</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>-46.30986252142125,169.89879559521657</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>-46.31004327074501,169.89794478151134</t>
+        </is>
+      </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>-46.31036120220332,169.89720823820932</t>
+        </is>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>-46.31058472784786,169.8963733111475</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>-46.31091810605927,169.89560584397148</t>
+        </is>
+      </c>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>-46.31137619730459,169.89491970175675</t>
+        </is>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-46.306240745007706,169.90714702328322</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-46.30661616257321,169.9064263103334</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-46.30727629001669,169.9059550435306</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-46.3076909442508,169.90526870790353</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-46.30792753350653,169.9044350706854</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-46.308280954326236,169.90370018020462</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-46.3086036536061,169.9029288689008</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-46.30888424565885,169.9021272488431</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>-46.30905929065952,169.90125075516818</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>-46.309538558582474,169.90059903222144</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>-46.309888689240054,169.89985856052246</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>-46.31087215967325,169.8965607499046</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>-46.3112338824545,169.89581176436943</t>
+        </is>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>-46.311573007836024,169.89504804235503</t>
+        </is>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25176,7 +25176,9 @@
       <c r="M430" t="n">
         <v>349.7018181818182</v>
       </c>
-      <c r="N430" t="inlineStr"/>
+      <c r="N430" t="n">
+        <v>348.3657894736842</v>
+      </c>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
       <c r="Q430" t="n">
@@ -25189,6 +25191,330 @@
         <v>341.7070588235294</v>
       </c>
       <c r="T430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>308.2685714285714</v>
+      </c>
+      <c r="C431" t="n">
+        <v>295.09</v>
+      </c>
+      <c r="D431" t="n">
+        <v>293.14</v>
+      </c>
+      <c r="E431" t="n">
+        <v>303.0942857142857</v>
+      </c>
+      <c r="F431" t="n">
+        <v>316.7133333333333</v>
+      </c>
+      <c r="G431" t="n">
+        <v>294.57</v>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="n">
+        <v>294.69</v>
+      </c>
+      <c r="J431" t="n">
+        <v>323.18</v>
+      </c>
+      <c r="K431" t="n">
+        <v>300.3</v>
+      </c>
+      <c r="L431" t="n">
+        <v>325.27</v>
+      </c>
+      <c r="M431" t="n">
+        <v>314.96</v>
+      </c>
+      <c r="N431" t="n">
+        <v>313.5736842105263</v>
+      </c>
+      <c r="O431" t="n">
+        <v>280.755</v>
+      </c>
+      <c r="P431" t="n">
+        <v>283.4123529411764</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>275.3636842105263</v>
+      </c>
+      <c r="R431" t="inlineStr"/>
+      <c r="S431" t="n">
+        <v>323.2523529411765</v>
+      </c>
+      <c r="T431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>288.9457142857143</v>
+      </c>
+      <c r="C432" t="n">
+        <v>281.63</v>
+      </c>
+      <c r="D432" t="n">
+        <v>279.5833333333333</v>
+      </c>
+      <c r="E432" t="n">
+        <v>299.2328571428571</v>
+      </c>
+      <c r="F432" t="n">
+        <v>309.4244444444445</v>
+      </c>
+      <c r="G432" t="n">
+        <v>283.6481818181818</v>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="n">
+        <v>287.24</v>
+      </c>
+      <c r="J432" t="n">
+        <v>313.05</v>
+      </c>
+      <c r="K432" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="L432" t="n">
+        <v>324.1081818181818</v>
+      </c>
+      <c r="M432" t="n">
+        <v>328.9981818181818</v>
+      </c>
+      <c r="N432" t="n">
+        <v>332.5610526315789</v>
+      </c>
+      <c r="O432" t="n">
+        <v>314.85</v>
+      </c>
+      <c r="P432" t="n">
+        <v>277.23</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>293.271052631579</v>
+      </c>
+      <c r="R432" t="n">
+        <v>322.29</v>
+      </c>
+      <c r="S432" t="n">
+        <v>330.05</v>
+      </c>
+      <c r="T432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>307.2857142857143</v>
+      </c>
+      <c r="C433" t="n">
+        <v>296.81</v>
+      </c>
+      <c r="D433" t="n">
+        <v>296.76</v>
+      </c>
+      <c r="E433" t="n">
+        <v>320.7928571428571</v>
+      </c>
+      <c r="F433" t="n">
+        <v>321.1933333333333</v>
+      </c>
+      <c r="G433" t="n">
+        <v>312.0872727272728</v>
+      </c>
+      <c r="H433" t="n">
+        <v>331.3433333333333</v>
+      </c>
+      <c r="I433" t="n">
+        <v>327.04</v>
+      </c>
+      <c r="J433" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="K433" t="n">
+        <v>348.63</v>
+      </c>
+      <c r="L433" t="n">
+        <v>349.5572727272727</v>
+      </c>
+      <c r="M433" t="n">
+        <v>347.3372727272728</v>
+      </c>
+      <c r="N433" t="n">
+        <v>337.0489473684211</v>
+      </c>
+      <c r="O433" t="n">
+        <v>333.285</v>
+      </c>
+      <c r="P433" t="n">
+        <v>333.4647058823529</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>323.888947368421</v>
+      </c>
+      <c r="R433" t="n">
+        <v>332.005</v>
+      </c>
+      <c r="S433" t="n">
+        <v>336.9947058823529</v>
+      </c>
+      <c r="T433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>292.14</v>
+      </c>
+      <c r="C434" t="n">
+        <v>289.24</v>
+      </c>
+      <c r="D434" t="n">
+        <v>283.0133333333333</v>
+      </c>
+      <c r="E434" t="n">
+        <v>303.34</v>
+      </c>
+      <c r="F434" t="n">
+        <v>313.9877777777777</v>
+      </c>
+      <c r="G434" t="n">
+        <v>329.0890909090909</v>
+      </c>
+      <c r="H434" t="n">
+        <v>322.9177777777778</v>
+      </c>
+      <c r="I434" t="n">
+        <v>315.9299999999999</v>
+      </c>
+      <c r="J434" t="n">
+        <v>321.29</v>
+      </c>
+      <c r="K434" t="n">
+        <v>325.32</v>
+      </c>
+      <c r="L434" t="n">
+        <v>342.5390909090909</v>
+      </c>
+      <c r="M434" t="n">
+        <v>327.3690909090909</v>
+      </c>
+      <c r="N434" t="n">
+        <v>327.1826315789473</v>
+      </c>
+      <c r="O434" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="P434" t="n">
+        <v>323.2958823529411</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>321.4426315789473</v>
+      </c>
+      <c r="R434" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="S434" t="n">
+        <v>349.8558823529411</v>
+      </c>
+      <c r="T434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>309.41</v>
+      </c>
+      <c r="C435" t="n">
+        <v>290.31</v>
+      </c>
+      <c r="D435" t="n">
+        <v>300.6066666666667</v>
+      </c>
+      <c r="E435" t="n">
+        <v>317.71</v>
+      </c>
+      <c r="F435" t="n">
+        <v>323.8222222222223</v>
+      </c>
+      <c r="G435" t="n">
+        <v>334.9763636363636</v>
+      </c>
+      <c r="H435" t="n">
+        <v>333.8222222222223</v>
+      </c>
+      <c r="I435" t="n">
+        <v>331.53</v>
+      </c>
+      <c r="J435" t="n">
+        <v>334.57</v>
+      </c>
+      <c r="K435" t="n">
+        <v>364.98</v>
+      </c>
+      <c r="L435" t="n">
+        <v>350.8063636363636</v>
+      </c>
+      <c r="M435" t="n">
+        <v>345.5363636363636</v>
+      </c>
+      <c r="N435" t="n">
+        <v>336.9357894736842</v>
+      </c>
+      <c r="O435" t="n">
+        <v>336.685</v>
+      </c>
+      <c r="P435" t="n">
+        <v>341.9723529411764</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>335.7557894736842</v>
+      </c>
+      <c r="R435" t="n">
+        <v>339.525</v>
+      </c>
+      <c r="S435" t="n">
+        <v>350.9223529411765</v>
+      </c>
+      <c r="T435" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25205,7 +25531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B441"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29623,6 +29949,56 @@
       </c>
       <c r="B441" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -29796,28 +30172,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.849193051053414</v>
+        <v>0.770524614083513</v>
       </c>
       <c r="J2" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1670367711914426</v>
+        <v>0.1376001624604689</v>
       </c>
       <c r="M2" t="n">
-        <v>11.04471315641826</v>
+        <v>11.27860789762305</v>
       </c>
       <c r="N2" t="n">
-        <v>199.9418273246668</v>
+        <v>209.9390068893137</v>
       </c>
       <c r="O2" t="n">
-        <v>14.14007875949306</v>
+        <v>14.48927213110837</v>
       </c>
       <c r="P2" t="n">
-        <v>308.3598361125736</v>
+        <v>309.1472944611095</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29874,28 +30250,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7903903543019788</v>
+        <v>0.6846970322494211</v>
       </c>
       <c r="J3" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K3" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1100026763409341</v>
+        <v>0.08153610245293419</v>
       </c>
       <c r="M3" t="n">
-        <v>13.40474090179174</v>
+        <v>13.83197943497127</v>
       </c>
       <c r="N3" t="n">
-        <v>288.4735743539137</v>
+        <v>305.9534749652971</v>
       </c>
       <c r="O3" t="n">
-        <v>16.98450983555056</v>
+        <v>17.49152580438016</v>
       </c>
       <c r="P3" t="n">
-        <v>308.9852485146896</v>
+        <v>310.0205222403238</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29952,28 +30328,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8254739484868703</v>
+        <v>0.7123382716998609</v>
       </c>
       <c r="J4" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09974789028827424</v>
+        <v>0.07331049104861276</v>
       </c>
       <c r="M4" t="n">
-        <v>15.06422710830975</v>
+        <v>15.58508081742176</v>
       </c>
       <c r="N4" t="n">
-        <v>361.616871073498</v>
+        <v>382.5311184117087</v>
       </c>
       <c r="O4" t="n">
-        <v>19.01622652035619</v>
+        <v>19.55840275717086</v>
       </c>
       <c r="P4" t="n">
-        <v>310.9795410012612</v>
+        <v>312.0739541444711</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30030,28 +30406,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7979998722895545</v>
+        <v>0.719594099163553</v>
       </c>
       <c r="J5" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1424871686280114</v>
+        <v>0.1162192799694006</v>
       </c>
       <c r="M5" t="n">
-        <v>11.35426277196384</v>
+        <v>11.64539646320011</v>
       </c>
       <c r="N5" t="n">
-        <v>224.5642076804788</v>
+        <v>234.2460026049986</v>
       </c>
       <c r="O5" t="n">
-        <v>14.98546654864235</v>
+        <v>15.30509727525437</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0013125121478</v>
+        <v>317.7530982681769</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30108,28 +30484,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7969874947011504</v>
+        <v>0.7282179860720033</v>
       </c>
       <c r="J6" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K6" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1492869434756761</v>
+        <v>0.1265212753586918</v>
       </c>
       <c r="M6" t="n">
-        <v>11.00745726636026</v>
+        <v>11.15409475803767</v>
       </c>
       <c r="N6" t="n">
-        <v>206.9024875512439</v>
+        <v>212.6745025478818</v>
       </c>
       <c r="O6" t="n">
-        <v>14.38410537889805</v>
+        <v>14.58336389684773</v>
       </c>
       <c r="P6" t="n">
-        <v>320.5379097908504</v>
+        <v>321.2070376431431</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30186,28 +30562,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.307734387655165</v>
+        <v>1.208999440356231</v>
       </c>
       <c r="J7" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2470423357793432</v>
+        <v>0.2114887941240572</v>
       </c>
       <c r="M7" t="n">
-        <v>13.38254670666756</v>
+        <v>13.70541084390294</v>
       </c>
       <c r="N7" t="n">
-        <v>304.7845849964472</v>
+        <v>323.814591850542</v>
       </c>
       <c r="O7" t="n">
-        <v>17.45808079361667</v>
+        <v>17.99484903661439</v>
       </c>
       <c r="P7" t="n">
-        <v>311.1956749893682</v>
+        <v>312.1434054646648</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30264,28 +30640,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>1.021807667817366</v>
+        <v>1.005778042703181</v>
       </c>
       <c r="J8" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1935998528204265</v>
+        <v>0.1910005775010829</v>
       </c>
       <c r="M8" t="n">
-        <v>11.83830712616836</v>
+        <v>11.80990962476023</v>
       </c>
       <c r="N8" t="n">
-        <v>249.5321447320374</v>
+        <v>248.164670878327</v>
       </c>
       <c r="O8" t="n">
-        <v>15.79658648987297</v>
+        <v>15.75324318603401</v>
       </c>
       <c r="P8" t="n">
-        <v>312.1162612797702</v>
+        <v>312.2735978608725</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30342,28 +30718,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.906630518846535</v>
+        <v>0.83545355804224</v>
       </c>
       <c r="J9" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K9" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1690586193542976</v>
+        <v>0.1440385441935139</v>
       </c>
       <c r="M9" t="n">
-        <v>11.95060886742362</v>
+        <v>12.15128123081583</v>
       </c>
       <c r="N9" t="n">
-        <v>234.5072861733051</v>
+        <v>244.7841440839814</v>
       </c>
       <c r="O9" t="n">
-        <v>15.3136307312572</v>
+        <v>15.6455790587623</v>
       </c>
       <c r="P9" t="n">
-        <v>312.7431472155491</v>
+        <v>313.4239884002573</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30420,28 +30796,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>1.007749500774441</v>
+        <v>0.9567707840570718</v>
       </c>
       <c r="J10" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K10" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2206563990329692</v>
+        <v>0.2036982817671421</v>
       </c>
       <c r="M10" t="n">
-        <v>10.64024998118913</v>
+        <v>10.75392205114275</v>
       </c>
       <c r="N10" t="n">
-        <v>205.8769799606267</v>
+        <v>208.5675721303449</v>
       </c>
       <c r="O10" t="n">
-        <v>14.34841384824911</v>
+        <v>14.44186872016031</v>
       </c>
       <c r="P10" t="n">
-        <v>317.0478196051438</v>
+        <v>317.543708689476</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30498,28 +30874,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.594205615323735</v>
+        <v>1.484530142317934</v>
       </c>
       <c r="J11" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K11" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2542560892715724</v>
+        <v>0.218756895581754</v>
       </c>
       <c r="M11" t="n">
-        <v>15.38725648937701</v>
+        <v>15.78347388819995</v>
       </c>
       <c r="N11" t="n">
-        <v>416.2349422029953</v>
+        <v>446.0429232350808</v>
       </c>
       <c r="O11" t="n">
-        <v>20.40183673601461</v>
+        <v>21.11972829453733</v>
       </c>
       <c r="P11" t="n">
-        <v>323.840917693303</v>
+        <v>324.9323591213272</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30576,28 +30952,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.578655427652102</v>
+        <v>1.480639814183062</v>
       </c>
       <c r="J12" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K12" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2493510748859371</v>
+        <v>0.223093752390031</v>
       </c>
       <c r="M12" t="n">
-        <v>14.85304028084916</v>
+        <v>15.15525142002781</v>
       </c>
       <c r="N12" t="n">
-        <v>411.9046616221165</v>
+        <v>425.2369012519287</v>
       </c>
       <c r="O12" t="n">
-        <v>20.29543450192965</v>
+        <v>20.62127302694789</v>
       </c>
       <c r="P12" t="n">
-        <v>332.1607337080261</v>
+        <v>333.1610351268104</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30654,28 +31030,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.534063871902847</v>
+        <v>1.406592277387839</v>
       </c>
       <c r="J13" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K13" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2258229130982263</v>
+        <v>0.1903040220241409</v>
       </c>
       <c r="M13" t="n">
-        <v>15.82387637752421</v>
+        <v>16.33716713945395</v>
       </c>
       <c r="N13" t="n">
-        <v>433.0521382594262</v>
+        <v>458.4266157158388</v>
       </c>
       <c r="O13" t="n">
-        <v>20.80990481139753</v>
+        <v>21.41089946069148</v>
       </c>
       <c r="P13" t="n">
-        <v>338.7558408093332</v>
+        <v>340.0731690445969</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30732,28 +31108,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.430950519130006</v>
+        <v>1.280512024644212</v>
       </c>
       <c r="J14" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K14" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1775156806921742</v>
+        <v>0.1434310077152764</v>
       </c>
       <c r="M14" t="n">
-        <v>16.95739705470594</v>
+        <v>17.52476441120372</v>
       </c>
       <c r="N14" t="n">
-        <v>512.2430981917081</v>
+        <v>538.6388773427012</v>
       </c>
       <c r="O14" t="n">
-        <v>22.63278812236151</v>
+        <v>23.20859490237833</v>
       </c>
       <c r="P14" t="n">
-        <v>340.2062424760613</v>
+        <v>341.7358978367995</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30810,28 +31186,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.473602116659382</v>
+        <v>1.317653426033489</v>
       </c>
       <c r="J15" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K15" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1711924387858106</v>
+        <v>0.135716349786787</v>
       </c>
       <c r="M15" t="n">
-        <v>17.94367704072396</v>
+        <v>18.61144562355089</v>
       </c>
       <c r="N15" t="n">
-        <v>577.6248347669776</v>
+        <v>617.6042823119664</v>
       </c>
       <c r="O15" t="n">
-        <v>24.03382688559975</v>
+        <v>24.8516454648775</v>
       </c>
       <c r="P15" t="n">
-        <v>333.3125937732805</v>
+        <v>334.8639588319767</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30888,28 +31264,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.608141795176953</v>
+        <v>1.431369234622588</v>
       </c>
       <c r="J16" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K16" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1832547595601342</v>
+        <v>0.1425213816854949</v>
       </c>
       <c r="M16" t="n">
-        <v>18.63168042336996</v>
+        <v>19.4171782445171</v>
       </c>
       <c r="N16" t="n">
-        <v>617.112744788733</v>
+        <v>671.0489379314886</v>
       </c>
       <c r="O16" t="n">
-        <v>24.84175406022556</v>
+        <v>25.90461229070006</v>
       </c>
       <c r="P16" t="n">
-        <v>330.6990945559452</v>
+        <v>332.4976844304275</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30966,28 +31342,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.79010726186723</v>
+        <v>1.602317334210937</v>
       </c>
       <c r="J17" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K17" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2184225136753722</v>
+        <v>0.1724160700334594</v>
       </c>
       <c r="M17" t="n">
-        <v>18.58500431860434</v>
+        <v>19.49176988676313</v>
       </c>
       <c r="N17" t="n">
-        <v>604.897045974238</v>
+        <v>661.0513076075205</v>
       </c>
       <c r="O17" t="n">
-        <v>24.59465482527124</v>
+        <v>25.71091806232365</v>
       </c>
       <c r="P17" t="n">
-        <v>326.4285755275708</v>
+        <v>328.3648632280263</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31044,28 +31420,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.004411414935717</v>
+        <v>1.907281341791734</v>
       </c>
       <c r="J18" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K18" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2773614625727682</v>
+        <v>0.2553726532106141</v>
       </c>
       <c r="M18" t="n">
-        <v>18.06045555554823</v>
+        <v>18.44303017287373</v>
       </c>
       <c r="N18" t="n">
-        <v>571.4911563600658</v>
+        <v>586.4090163505493</v>
       </c>
       <c r="O18" t="n">
-        <v>23.90588120860776</v>
+        <v>24.2158835550254</v>
       </c>
       <c r="P18" t="n">
-        <v>323.0709814447357</v>
+        <v>324.0511803369106</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31122,28 +31498,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>1.86650820074496</v>
+        <v>1.757293903222988</v>
       </c>
       <c r="J19" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K19" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2582075963740067</v>
+        <v>0.2332358776462936</v>
       </c>
       <c r="M19" t="n">
-        <v>17.78583622199587</v>
+        <v>18.23078170877217</v>
       </c>
       <c r="N19" t="n">
-        <v>545.2734484723391</v>
+        <v>561.3006433856953</v>
       </c>
       <c r="O19" t="n">
-        <v>23.35109094822636</v>
+        <v>23.69178430143444</v>
       </c>
       <c r="P19" t="n">
-        <v>329.9741788434113</v>
+        <v>331.0830559783712</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31181,7 +31557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67709,7 +68085,11 @@
           <t>-46.309888689240054,169.89985856052246</t>
         </is>
       </c>
-      <c r="N430" t="inlineStr"/>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>-46.3102067778838,169.89908761267495</t>
+        </is>
+      </c>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
       <c r="Q430" t="inlineStr">
@@ -67728,6 +68108,504 @@
         </is>
       </c>
       <c r="T430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-46.306141677057546,169.90810986295233</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-46.30637627456639,169.9072657671469</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-46.30669718847969,169.90649730036262</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-46.30710961432716,169.90580901240165</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-46.307550211555274,169.9051454070912</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-46.30770840783944,169.90425861624695</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-46.308265481691926,169.90270436592863</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>-46.30877239291778,169.9020529935828</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>-46.30886340871375,169.90111208690683</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>-46.30936919946947,169.90046353384514</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>-46.309619328343885,169.89963007101673</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>-46.30993702611304,169.89885879388243</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>-46.30999890010568,169.89791108804857</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>-46.31028544802142,169.89715798410978</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>-46.31048850739991,169.89631056476387</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr"/>
+      <c r="S431" t="inlineStr">
+        <is>
+          <t>-46.311421760130244,169.89494941329295</t>
+        </is>
+      </c>
+      <c r="T431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-46.30599313439769,169.9079797160037</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-46.30627280164058,169.9071751095563</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-46.30659297203918,169.90640599222567</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-46.30707992962939,169.90578300457702</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-46.30749417811057,169.9050963144425</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-46.30762263376763,169.90418954573687</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-46.30820461234002,169.90266395676352</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>-46.30868962676416,169.9019980481337</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>-46.30872856821072,169.90101663157364</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>-46.30936006115225,169.90045622261977</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>-46.30972816947997,169.8997223968704</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>-46.31008423991337,169.8989836686828</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>-46.31027025726665,169.8981171478247</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>-46.310234929200156,169.8971244708225</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>-46.310635268696764,169.89640626946925</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>-46.311143485040795,169.89575281521212</t>
+        </is>
+      </c>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t>-46.31147747105245,169.89498574247784</t>
+        </is>
+      </c>
+      <c r="T432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>-46.30613412143829,169.908103243011</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-46.306389496956385,169.90727735194494</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>-46.3067250171025,169.90652168218483</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-46.30724567186882,169.90592821769027</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-46.30758465161426,169.9051755811583</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>-46.30784597897712,169.90436939741562</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>-46.30829150021478,169.90370756361452</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-46.30852979342908,169.90287983492274</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>-46.308833997719816,169.90209389089216</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>-46.30925363834488,169.90138833835638</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>-46.309560231676194,169.90061637218247</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>-46.30987035641635,169.89984300934307</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>-46.31011903566197,169.89901318445192</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>-46.31041697862001,169.89822856416802</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>-46.31069444827064,169.8974293100151</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>-46.31088619998372,169.8965699058624</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>-46.31122310524838,169.89580473642283</t>
+        </is>
+      </c>
+      <c r="S433" t="inlineStr">
+        <is>
+          <t>-46.31153438720214,169.89502285767432</t>
+        </is>
+      </c>
+      <c r="T433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>-46.306017690180084,169.90800123071102</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>-46.30633130305761,169.90722636540394</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>-46.306619340060486,169.90642909425222</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-46.30711150325335,169.90581066735854</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>-46.30752925880754,169.90512704972184</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-46.30797950192264,169.9044769193126</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-46.30822332503862,169.90365983271948</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-46.30843902055332,169.90281957320698</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>-46.30875695086325,169.9020427421492</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>-46.309065427107164,169.90125509928424</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>-46.30950502999436,169.9005722070821</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>-46.309715538780424,169.89971168270034</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>-46.31004253968678,169.89894829619163</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>-46.310282593484,169.898126515599</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>-46.31061135429391,169.89737418611014</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>-46.31086615102406,169.89655683154987</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>-46.311231587688205,169.8958102679243</t>
+        </is>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>-46.31163979245076,169.89509159297688</t>
+        </is>
+      </c>
+      <c r="T434" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>-46.30615045167891,169.90811755093878</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>-46.30633952861654,169.90723357221373</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>-46.30675458821218,169.90654759070395</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-46.307221972452034,169.9059074536633</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>-46.30760486122884,169.90519328748584</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>-46.30802573730915,169.9045141513753</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>-46.308311558080064,169.90372160657813</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>-46.30856647840872,169.9029041891724</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>-46.3088654537477,169.90211477350493</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>-46.30938565257975,169.9014817948643</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>-46.30957005642987,169.90062423266414</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>-46.30985639358393,169.89983116510297</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>-46.31011815832114,169.8990124402401</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>-46.31044403869084,169.89824911294687</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>-46.310763968018044,169.89747542901713</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>-46.31098345553589,169.89663332822374</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>-46.31128473611015,169.89584492669343</t>
+        </is>
+      </c>
+      <c r="S435" t="inlineStr">
+        <is>
+          <t>-46.3116485328313,169.89509729263636</t>
+        </is>
+      </c>
+      <c r="T435" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T435"/>
+  <dimension ref="A1:T439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25520,6 +25520,270 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>323.6985714285714</v>
+      </c>
+      <c r="C436" t="n">
+        <v>305.07</v>
+      </c>
+      <c r="D436" t="n">
+        <v>300.4833333333333</v>
+      </c>
+      <c r="E436" t="n">
+        <v>318.8942857142857</v>
+      </c>
+      <c r="F436" t="n">
+        <v>331.0444444444445</v>
+      </c>
+      <c r="G436" t="n">
+        <v>340.2163636363636</v>
+      </c>
+      <c r="H436" t="n">
+        <v>330.3144444444445</v>
+      </c>
+      <c r="I436" t="n">
+        <v>328.28</v>
+      </c>
+      <c r="J436" t="n">
+        <v>330.07</v>
+      </c>
+      <c r="K436" t="n">
+        <v>348.19</v>
+      </c>
+      <c r="L436" t="n">
+        <v>349.3063636363636</v>
+      </c>
+      <c r="M436" t="n">
+        <v>339.8363636363636</v>
+      </c>
+      <c r="N436" t="n">
+        <v>342.2642105263158</v>
+      </c>
+      <c r="O436" t="n">
+        <v>341.355</v>
+      </c>
+      <c r="P436" t="n">
+        <v>338.7858823529411</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>336.5342105263158</v>
+      </c>
+      <c r="R436" t="n">
+        <v>325.075</v>
+      </c>
+      <c r="S436" t="n">
+        <v>324.7458823529412</v>
+      </c>
+      <c r="T436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>313.1642857142857</v>
+      </c>
+      <c r="C437" t="n">
+        <v>300.07</v>
+      </c>
+      <c r="D437" t="n">
+        <v>298.4366666666667</v>
+      </c>
+      <c r="E437" t="n">
+        <v>306.8971428571429</v>
+      </c>
+      <c r="F437" t="n">
+        <v>323.7922222222222</v>
+      </c>
+      <c r="G437" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="H437" t="n">
+        <v>331.6122222222222</v>
+      </c>
+      <c r="I437" t="n">
+        <v>323.74</v>
+      </c>
+      <c r="J437" t="n">
+        <v>328.2</v>
+      </c>
+      <c r="K437" t="n">
+        <v>343.58</v>
+      </c>
+      <c r="L437" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="M437" t="n">
+        <v>327.43</v>
+      </c>
+      <c r="N437" t="n">
+        <v>318.2994736842105</v>
+      </c>
+      <c r="O437" t="n">
+        <v>311.435</v>
+      </c>
+      <c r="P437" t="n">
+        <v>321.7705882352942</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>321.1794736842105</v>
+      </c>
+      <c r="R437" t="n">
+        <v>308.795</v>
+      </c>
+      <c r="S437" t="n">
+        <v>314.1805882352941</v>
+      </c>
+      <c r="T437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>312.6028571428571</v>
+      </c>
+      <c r="C438" t="n">
+        <v>304.44</v>
+      </c>
+      <c r="D438" t="n">
+        <v>309.6766666666667</v>
+      </c>
+      <c r="E438" t="n">
+        <v>315.4714285714285</v>
+      </c>
+      <c r="F438" t="n">
+        <v>337.9455555555556</v>
+      </c>
+      <c r="G438" t="n">
+        <v>338.4563636363636</v>
+      </c>
+      <c r="H438" t="n">
+        <v>326.8755555555555</v>
+      </c>
+      <c r="I438" t="n">
+        <v>323.39</v>
+      </c>
+      <c r="J438" t="n">
+        <v>330.19</v>
+      </c>
+      <c r="K438" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="L438" t="n">
+        <v>336.7063636363636</v>
+      </c>
+      <c r="M438" t="n">
+        <v>338.2863636363636</v>
+      </c>
+      <c r="N438" t="n">
+        <v>343.1884210526316</v>
+      </c>
+      <c r="O438" t="n">
+        <v>335.285</v>
+      </c>
+      <c r="P438" t="n">
+        <v>336.9176470588235</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>333.0384210526316</v>
+      </c>
+      <c r="R438" t="n">
+        <v>324.145</v>
+      </c>
+      <c r="S438" t="n">
+        <v>323.9976470588236</v>
+      </c>
+      <c r="T438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>317.29</v>
+      </c>
+      <c r="C439" t="n">
+        <v>316.37</v>
+      </c>
+      <c r="D439" t="n">
+        <v>315.27</v>
+      </c>
+      <c r="E439" t="n">
+        <v>315.24</v>
+      </c>
+      <c r="F439" t="n">
+        <v>327.0266666666667</v>
+      </c>
+      <c r="G439" t="n">
+        <v>335.2881818181818</v>
+      </c>
+      <c r="H439" t="n">
+        <v>329.2566666666667</v>
+      </c>
+      <c r="I439" t="n">
+        <v>322.64</v>
+      </c>
+      <c r="J439" t="n">
+        <v>322.51</v>
+      </c>
+      <c r="K439" t="n">
+        <v>336.86</v>
+      </c>
+      <c r="L439" t="n">
+        <v>331.5181818181818</v>
+      </c>
+      <c r="M439" t="n">
+        <v>336.9181818181818</v>
+      </c>
+      <c r="N439" t="n">
+        <v>333.1305263157895</v>
+      </c>
+      <c r="O439" t="n">
+        <v>319.745</v>
+      </c>
+      <c r="P439" t="n">
+        <v>322.0805882352942</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>312.9205263157895</v>
+      </c>
+      <c r="R439" t="n">
+        <v>309.785</v>
+      </c>
+      <c r="S439" t="n">
+        <v>311.4405882352942</v>
+      </c>
+      <c r="T439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25531,7 +25795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29999,6 +30263,46 @@
       </c>
       <c r="B446" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -30172,28 +30476,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.770524614083513</v>
+        <v>0.7439393854064666</v>
       </c>
       <c r="J2" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K2" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1376001624604689</v>
+        <v>0.1310028757459674</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27860789762305</v>
+        <v>11.28269682148008</v>
       </c>
       <c r="N2" t="n">
-        <v>209.9390068893137</v>
+        <v>209.4988229248089</v>
       </c>
       <c r="O2" t="n">
-        <v>14.48927213110837</v>
+        <v>14.47407416468524</v>
       </c>
       <c r="P2" t="n">
-        <v>309.1472944611095</v>
+        <v>309.4156923037453</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30250,28 +30554,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6846970322494211</v>
+        <v>0.6390888217928773</v>
       </c>
       <c r="J3" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K3" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08153610245293419</v>
+        <v>0.07212952908320758</v>
       </c>
       <c r="M3" t="n">
-        <v>13.83197943497127</v>
+        <v>13.94539883132997</v>
       </c>
       <c r="N3" t="n">
-        <v>305.9534749652971</v>
+        <v>307.9558893702327</v>
       </c>
       <c r="O3" t="n">
-        <v>17.49152580438016</v>
+        <v>17.54867201158631</v>
       </c>
       <c r="P3" t="n">
-        <v>310.0205222403238</v>
+        <v>310.4709342274342</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30328,28 +30632,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7123382716998609</v>
+        <v>0.6599016245713757</v>
       </c>
       <c r="J4" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07331049104861276</v>
+        <v>0.06375698344822123</v>
       </c>
       <c r="M4" t="n">
-        <v>15.58508081742176</v>
+        <v>15.74679834040358</v>
       </c>
       <c r="N4" t="n">
-        <v>382.5311184117087</v>
+        <v>385.5697152339806</v>
       </c>
       <c r="O4" t="n">
-        <v>19.55840275717086</v>
+        <v>19.63592919201891</v>
       </c>
       <c r="P4" t="n">
-        <v>312.0739541444711</v>
+        <v>312.5856452576703</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30406,28 +30710,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.719594099163553</v>
+        <v>0.671860454029533</v>
       </c>
       <c r="J5" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K5" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1162192799694006</v>
+        <v>0.1026767933029794</v>
       </c>
       <c r="M5" t="n">
-        <v>11.64539646320011</v>
+        <v>11.79516792307746</v>
       </c>
       <c r="N5" t="n">
-        <v>234.2460026049986</v>
+        <v>237.4329091424375</v>
       </c>
       <c r="O5" t="n">
-        <v>15.30509727525437</v>
+        <v>15.40885813882513</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7530982681769</v>
+        <v>318.2149055417808</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30484,28 +30788,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7282179860720033</v>
+        <v>0.7054006482637126</v>
       </c>
       <c r="J6" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1265212753586918</v>
+        <v>0.1214794334063605</v>
       </c>
       <c r="M6" t="n">
-        <v>11.15409475803767</v>
+        <v>11.1228949776335</v>
       </c>
       <c r="N6" t="n">
-        <v>212.6745025478818</v>
+        <v>211.6539778982919</v>
       </c>
       <c r="O6" t="n">
-        <v>14.58336389684773</v>
+        <v>14.54833247827021</v>
       </c>
       <c r="P6" t="n">
-        <v>321.2070376431431</v>
+        <v>321.4309588879833</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30562,28 +30866,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.208999440356231</v>
+        <v>1.185003414841029</v>
       </c>
       <c r="J7" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2114887941240572</v>
+        <v>0.2077904040738671</v>
       </c>
       <c r="M7" t="n">
-        <v>13.70541084390294</v>
+        <v>13.66621003176203</v>
       </c>
       <c r="N7" t="n">
-        <v>323.814591850542</v>
+        <v>322.0603097651929</v>
       </c>
       <c r="O7" t="n">
-        <v>17.99484903661439</v>
+        <v>17.94603883215438</v>
       </c>
       <c r="P7" t="n">
-        <v>312.1434054646648</v>
+        <v>312.3759305762435</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30640,28 +30944,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>1.005778042703181</v>
+        <v>0.9855018441288037</v>
       </c>
       <c r="J8" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1910005775010829</v>
+        <v>0.1879199298461053</v>
       </c>
       <c r="M8" t="n">
-        <v>11.80990962476023</v>
+        <v>11.76799399670614</v>
       </c>
       <c r="N8" t="n">
-        <v>248.164670878327</v>
+        <v>246.0817336728303</v>
       </c>
       <c r="O8" t="n">
-        <v>15.75324318603401</v>
+        <v>15.68699249929158</v>
       </c>
       <c r="P8" t="n">
-        <v>312.2735978608725</v>
+        <v>312.4741315943215</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30718,28 +31022,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.83545355804224</v>
+        <v>0.8115498424717307</v>
       </c>
       <c r="J9" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K9" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1440385441935139</v>
+        <v>0.1393235549699182</v>
       </c>
       <c r="M9" t="n">
-        <v>12.15128123081583</v>
+        <v>12.13459663846413</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7841440839814</v>
+        <v>243.1945401472139</v>
       </c>
       <c r="O9" t="n">
-        <v>15.6455790587623</v>
+        <v>15.59469589787547</v>
       </c>
       <c r="P9" t="n">
-        <v>313.4239884002573</v>
+        <v>313.6548383858184</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30796,28 +31100,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9567707840570718</v>
+        <v>0.9250463331274416</v>
       </c>
       <c r="J10" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2036982817671421</v>
+        <v>0.194735405933618</v>
       </c>
       <c r="M10" t="n">
-        <v>10.75392205114275</v>
+        <v>10.79427744117998</v>
       </c>
       <c r="N10" t="n">
-        <v>208.5675721303449</v>
+        <v>208.6936402659268</v>
       </c>
       <c r="O10" t="n">
-        <v>14.44186872016031</v>
+        <v>14.44623273611244</v>
       </c>
       <c r="P10" t="n">
-        <v>317.543708689476</v>
+        <v>317.8551099968913</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30874,28 +31178,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.484530142317934</v>
+        <v>1.438292701035604</v>
       </c>
       <c r="J11" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K11" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L11" t="n">
-        <v>0.218756895581754</v>
+        <v>0.2099128957985507</v>
       </c>
       <c r="M11" t="n">
-        <v>15.78347388819995</v>
+        <v>15.86045785787518</v>
       </c>
       <c r="N11" t="n">
-        <v>446.0429232350808</v>
+        <v>446.384138927841</v>
       </c>
       <c r="O11" t="n">
-        <v>21.11972829453733</v>
+        <v>21.12780487717172</v>
       </c>
       <c r="P11" t="n">
-        <v>324.9323591213272</v>
+        <v>325.3968652658277</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30952,28 +31256,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.480639814183062</v>
+        <v>1.409931798011604</v>
       </c>
       <c r="J12" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K12" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L12" t="n">
-        <v>0.223093752390031</v>
+        <v>0.205663461951309</v>
       </c>
       <c r="M12" t="n">
-        <v>15.15525142002781</v>
+        <v>15.37398120468388</v>
       </c>
       <c r="N12" t="n">
-        <v>425.2369012519287</v>
+        <v>432.4564112953359</v>
       </c>
       <c r="O12" t="n">
-        <v>20.62127302694789</v>
+        <v>20.79558634170568</v>
       </c>
       <c r="P12" t="n">
-        <v>333.1610351268104</v>
+        <v>333.8892865877125</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31030,28 +31334,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.406592277387839</v>
+        <v>1.316398169907135</v>
       </c>
       <c r="J13" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K13" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1903040220241409</v>
+        <v>0.1680393306585823</v>
       </c>
       <c r="M13" t="n">
-        <v>16.33716713945395</v>
+        <v>16.6745236378027</v>
       </c>
       <c r="N13" t="n">
-        <v>458.4266157158388</v>
+        <v>472.5045326926783</v>
       </c>
       <c r="O13" t="n">
-        <v>21.41089946069148</v>
+        <v>21.73716938087106</v>
       </c>
       <c r="P13" t="n">
-        <v>340.0731690445969</v>
+        <v>341.0131732277094</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31108,28 +31412,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.280512024644212</v>
+        <v>1.190347087686419</v>
       </c>
       <c r="J14" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K14" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1434310077152764</v>
+        <v>0.1249521214452959</v>
       </c>
       <c r="M14" t="n">
-        <v>17.52476441120372</v>
+        <v>17.84527204680827</v>
       </c>
       <c r="N14" t="n">
-        <v>538.6388773427012</v>
+        <v>552.372698598735</v>
       </c>
       <c r="O14" t="n">
-        <v>23.20859490237833</v>
+        <v>23.50261046349394</v>
       </c>
       <c r="P14" t="n">
-        <v>341.7358978367995</v>
+        <v>342.6605668245834</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31186,28 +31490,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.317653426033489</v>
+        <v>1.223835318747405</v>
       </c>
       <c r="J15" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K15" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.135716349786787</v>
+        <v>0.1182044931049646</v>
       </c>
       <c r="M15" t="n">
-        <v>18.61144562355089</v>
+        <v>18.95819839833105</v>
       </c>
       <c r="N15" t="n">
-        <v>617.6042823119664</v>
+        <v>632.1337443467421</v>
       </c>
       <c r="O15" t="n">
-        <v>24.8516454648775</v>
+        <v>25.14227007147012</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8639588319767</v>
+        <v>335.8052017271106</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31264,28 +31568,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.431369234622588</v>
+        <v>1.339873714542833</v>
       </c>
       <c r="J16" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K16" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1425213816854949</v>
+        <v>0.1267357853541893</v>
       </c>
       <c r="M16" t="n">
-        <v>19.4171782445171</v>
+        <v>19.74966932720855</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0489379314886</v>
+        <v>682.1265687621493</v>
       </c>
       <c r="O16" t="n">
-        <v>25.90461229070006</v>
+        <v>26.11755288617502</v>
       </c>
       <c r="P16" t="n">
-        <v>332.4976844304275</v>
+        <v>333.4365517802353</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31342,28 +31646,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.602317334210937</v>
+        <v>1.498761388072</v>
       </c>
       <c r="J17" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K17" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1724160700334594</v>
+        <v>0.1527588171195847</v>
       </c>
       <c r="M17" t="n">
-        <v>19.49176988676313</v>
+        <v>19.91588410112481</v>
       </c>
       <c r="N17" t="n">
-        <v>661.0513076075205</v>
+        <v>676.9755986655467</v>
       </c>
       <c r="O17" t="n">
-        <v>25.71091806232365</v>
+        <v>26.01875474855679</v>
       </c>
       <c r="P17" t="n">
-        <v>328.3648632280263</v>
+        <v>329.4416592899656</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31420,28 +31724,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.907281341791734</v>
+        <v>1.782378912376661</v>
       </c>
       <c r="J18" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K18" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2553726532106141</v>
+        <v>0.2238705603714041</v>
       </c>
       <c r="M18" t="n">
-        <v>18.44303017287373</v>
+        <v>19.01008542007844</v>
       </c>
       <c r="N18" t="n">
-        <v>586.4090163505493</v>
+        <v>616.3909808513645</v>
       </c>
       <c r="O18" t="n">
-        <v>24.2158835550254</v>
+        <v>24.82722257626423</v>
       </c>
       <c r="P18" t="n">
-        <v>324.0511803369106</v>
+        <v>325.3213900605693</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31498,28 +31802,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>1.757293903222988</v>
+        <v>1.632496062902604</v>
       </c>
       <c r="J19" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K19" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2332358776462936</v>
+        <v>0.2009169710696028</v>
       </c>
       <c r="M19" t="n">
-        <v>18.23078170877217</v>
+        <v>18.8602167943193</v>
       </c>
       <c r="N19" t="n">
-        <v>561.3006433856953</v>
+        <v>592.7844374099245</v>
       </c>
       <c r="O19" t="n">
-        <v>23.69178430143444</v>
+        <v>24.34716487416809</v>
       </c>
       <c r="P19" t="n">
-        <v>331.0830559783712</v>
+        <v>332.3611012917451</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31557,7 +31861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T435"/>
+  <dimension ref="A1:T439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68611,6 +68915,414 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-46.306260293645266,169.9082137904929</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-46.30645299516325,169.90733298599324</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-46.30675364009177,169.90654676001446</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-46.30723107663062,169.90591543020355</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-46.30766038213525,169.90524193130872</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-46.3080668893642,169.90454729003255</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-46.308283174986514,169.90370173493775</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-46.30853992469341,169.9028865608148</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>-46.308828686961526,169.90209036525854</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>-46.30925008566728,169.90138582332492</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>-46.309558258144826,169.90061479322142</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>-46.3098122002605,169.8997936773148</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>-46.310159470867674,169.89904748398862</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>-46.31048120648862,169.89827733733128</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>-46.310737929959295,169.8974581555036</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>-46.31098983514014,169.8966374885042</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>-46.311166309775615,169.89576769945572</t>
+        </is>
+      </c>
+      <c r="S436" t="inlineStr">
+        <is>
+          <t>-46.31143400052844,169.89495739527024</t>
+        </is>
+      </c>
+      <c r="T436" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-46.30617931238264,169.9081428375996</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-46.306414557994955,169.90729930919346</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-46.306737906417,169.90653297506285</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-46.30713884875233,169.90583462575802</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-46.3076046306035,169.9051930854271</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-46.30789398499153,169.9044080551064</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>-46.30829367592234,169.9037090868759</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>-46.3085028311917,169.90286193538302</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>-46.30881340831792,169.9020802222855</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>-46.30921286329223,169.90135947267328</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>-46.3095040146265,169.90057139471966</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>-46.30971601102198,169.89971208328586</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>-46.309973666348334,169.89888987406363</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>-46.31024307779184,169.8980965085171</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>-46.310598890435706,169.8973659176978</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>-46.31086399429424,169.89655542510548</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>-46.31103288544871,169.8956806922698</t>
+        </is>
+      </c>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>-46.311347411391445,169.8949009304786</t>
+        </is>
+      </c>
+      <c r="T437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>-46.30617499645581,169.90813905614525</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>-46.30644815208054,169.90732874271393</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-46.306824313485265,169.90660868013708</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-46.30720476346652,169.90589237618119</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>-46.30771343447923,169.9052884124427</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-46.30805306730087,169.9045361594858</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>-46.30825534930266,169.90368225357392</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>-46.308499971560316,169.902860036948</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>-46.30882966740923,169.9020910161447</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>-46.30917499497019,169.9013326647792</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>-46.30945915252277,169.90053550205963</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>-46.30980018277589,169.89978348327736</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>-46.31016663649606,169.89905356230508</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>-46.31043289630913,169.8982406516826</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>-46.31072266378237,169.8974480280089</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>-46.31096118515163,169.89661880522354</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>-46.31115868787154,169.89576272913246</t>
+        </is>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>-46.31142786827702,169.8949533964218</t>
+        </is>
+      </c>
+      <c r="T438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>-46.30621102840129,169.908170626015</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>-46.306539863130496,169.90740909573148</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>-46.306867312003504,169.90664635315275</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-46.307202984362625,169.90589081743755</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>-46.30762949543025,169.90521487036395</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>-46.308028186156534,169.90451612336554</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>-46.30827461600426,169.90369574260666</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>-46.308493843778685,169.90285596887358</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>-46.308766918750386,169.90204935947608</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>-46.309158604202224,169.90132106137352</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>-46.30941834473169,169.90050285317568</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>-46.30978957496621,169.89977448502512</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>-46.3100886551829,169.89898741396777</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>-46.310309215834565,169.89814673187433</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>-46.310601423583954,169.89736759816543</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>-46.31079630747783,169.89651128530798</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>-46.31104099909188,169.8956859832356</t>
+        </is>
+      </c>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>-46.31132495538831,169.8948862869458</t>
+        </is>
+      </c>
+      <c r="T439" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T439"/>
+  <dimension ref="A1:T440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25784,6 +25784,72 @@
         </is>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>315.8028571428572</v>
+      </c>
+      <c r="C440" t="n">
+        <v>315.96</v>
+      </c>
+      <c r="D440" t="n">
+        <v>319.9666666666667</v>
+      </c>
+      <c r="E440" t="n">
+        <v>311.3314285714285</v>
+      </c>
+      <c r="F440" t="n">
+        <v>322.2722222222222</v>
+      </c>
+      <c r="G440" t="n">
+        <v>325.9790909090909</v>
+      </c>
+      <c r="H440" t="n">
+        <v>313.5822222222222</v>
+      </c>
+      <c r="I440" t="n">
+        <v>310.01</v>
+      </c>
+      <c r="J440" t="n">
+        <v>321.41</v>
+      </c>
+      <c r="K440" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="L440" t="n">
+        <v>322.0990909090909</v>
+      </c>
+      <c r="M440" t="n">
+        <v>325.069090909091</v>
+      </c>
+      <c r="N440" t="n">
+        <v>323.4405263157895</v>
+      </c>
+      <c r="O440" t="n">
+        <v>323.095</v>
+      </c>
+      <c r="P440" t="n">
+        <v>320.32</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>316.6205263157895</v>
+      </c>
+      <c r="R440" t="n">
+        <v>317.205</v>
+      </c>
+      <c r="S440" t="n">
+        <v>320.19</v>
+      </c>
+      <c r="T440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25795,7 +25861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30303,6 +30369,16 @@
       </c>
       <c r="B450" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -31861,7 +31937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T439"/>
+  <dimension ref="A1:T440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69323,6 +69399,108 @@
         </is>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>-46.30619959613903,169.90816060948075</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>-46.30653671128469,169.9074063342236</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>-46.30690341742521,169.90667798685607</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-46.3071729372716,169.90586449200447</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>-46.307592945585725,169.90518284778568</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>-46.30795507769692,169.90445725119554</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>-46.308147786599065,169.9036069467959</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>-46.30839065191678,169.90278746263274</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>-46.30875793131119,169.90204339303372</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>-46.30910846297937,169.90128556528282</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>-46.3093442585839,169.900443579583</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>-46.309697706373804,169.89969655611802</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>-46.31001352621476,169.89892368535942</t>
+        </is>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>-46.310335877976165,169.89816697838748</t>
+        </is>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>-46.310587037032086,169.89735805425929</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>-46.31082663110443,169.8965310598792</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>-46.31110181043078,169.89572563880543</t>
+        </is>
+      </c>
+      <c r="S440" t="inlineStr">
+        <is>
+          <t>-46.31139666225041,169.89493304694935</t>
+        </is>
+      </c>
+      <c r="T440" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -30552,28 +30552,28 @@
         <v>0.0427</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7439393854064666</v>
+        <v>0.7370088899075757</v>
       </c>
       <c r="J2" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K2" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1310028757459674</v>
+        <v>0.1292633486462188</v>
       </c>
       <c r="M2" t="n">
-        <v>11.28269682148008</v>
+        <v>11.2851653184654</v>
       </c>
       <c r="N2" t="n">
-        <v>209.4988229248089</v>
+        <v>209.3840563918788</v>
       </c>
       <c r="O2" t="n">
-        <v>14.47407416468524</v>
+        <v>14.47010906634359</v>
       </c>
       <c r="P2" t="n">
-        <v>309.4156923037453</v>
+        <v>309.485985633769</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30630,28 +30630,28 @@
         <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6390888217928773</v>
+        <v>0.6330964398503982</v>
       </c>
       <c r="J3" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07212952908320758</v>
+        <v>0.0711818468125418</v>
       </c>
       <c r="M3" t="n">
-        <v>13.94539883132997</v>
+        <v>13.94066162348777</v>
       </c>
       <c r="N3" t="n">
-        <v>307.9558893702327</v>
+        <v>307.4221836472205</v>
       </c>
       <c r="O3" t="n">
-        <v>17.54867201158631</v>
+        <v>17.53345897554788</v>
       </c>
       <c r="P3" t="n">
-        <v>310.4709342274342</v>
+        <v>310.5304217422719</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30708,28 +30708,28 @@
         <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6599016245713757</v>
+        <v>0.6546481277787057</v>
       </c>
       <c r="J4" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06375698344822123</v>
+        <v>0.06310169092640538</v>
       </c>
       <c r="M4" t="n">
-        <v>15.74679834040358</v>
+        <v>15.73407659004025</v>
       </c>
       <c r="N4" t="n">
-        <v>385.5697152339806</v>
+        <v>384.6996295706942</v>
       </c>
       <c r="O4" t="n">
-        <v>19.63592919201891</v>
+        <v>19.61376122957283</v>
       </c>
       <c r="P4" t="n">
-        <v>312.5856452576703</v>
+        <v>312.6371963435404</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30786,28 +30786,28 @@
         <v>0.0885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.671860454029533</v>
+        <v>0.6588186216120818</v>
       </c>
       <c r="J5" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1026767933029794</v>
+        <v>0.09898279097151519</v>
       </c>
       <c r="M5" t="n">
-        <v>11.79516792307746</v>
+        <v>11.83963601420492</v>
       </c>
       <c r="N5" t="n">
-        <v>237.4329091424375</v>
+        <v>238.4841601178372</v>
       </c>
       <c r="O5" t="n">
-        <v>15.40885813882513</v>
+        <v>15.44293236784508</v>
       </c>
       <c r="P5" t="n">
-        <v>318.2149055417808</v>
+        <v>318.3417203707393</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30864,28 +30864,28 @@
         <v>0.0571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7054006482637126</v>
+        <v>0.6955842854585509</v>
       </c>
       <c r="J6" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1214794334063605</v>
+        <v>0.1186962890342469</v>
       </c>
       <c r="M6" t="n">
-        <v>11.1228949776335</v>
+        <v>11.13415443849158</v>
       </c>
       <c r="N6" t="n">
-        <v>211.6539778982919</v>
+        <v>211.9434136970937</v>
       </c>
       <c r="O6" t="n">
-        <v>14.54833247827021</v>
+        <v>14.55827646725716</v>
       </c>
       <c r="P6" t="n">
-        <v>321.4309588879833</v>
+        <v>321.5277673551441</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30942,28 +30942,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.185003414841029</v>
+        <v>1.175170459590676</v>
       </c>
       <c r="J7" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K7" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2077904040738671</v>
+        <v>0.2055901156395187</v>
       </c>
       <c r="M7" t="n">
-        <v>13.66621003176203</v>
+        <v>13.67920714612699</v>
       </c>
       <c r="N7" t="n">
-        <v>322.0603097651929</v>
+        <v>321.9893703657411</v>
       </c>
       <c r="O7" t="n">
-        <v>17.94603883215438</v>
+        <v>17.94406225930297</v>
       </c>
       <c r="P7" t="n">
-        <v>312.3759305762435</v>
+        <v>312.4717045323425</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31020,28 +31020,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9855018441288037</v>
+        <v>0.9715613851726879</v>
       </c>
       <c r="J8" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1879199298461053</v>
+        <v>0.1833896568560366</v>
       </c>
       <c r="M8" t="n">
-        <v>11.76799399670614</v>
+        <v>11.80332607699556</v>
       </c>
       <c r="N8" t="n">
-        <v>246.0817336728303</v>
+        <v>247.186040283088</v>
       </c>
       <c r="O8" t="n">
-        <v>15.68699249929158</v>
+        <v>15.72215126129653</v>
       </c>
       <c r="P8" t="n">
-        <v>312.4741315943215</v>
+        <v>312.6126741294435</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31098,28 +31098,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8115498424717307</v>
+        <v>0.797646190934883</v>
       </c>
       <c r="J9" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1393235549699182</v>
+        <v>0.1350564685013756</v>
       </c>
       <c r="M9" t="n">
-        <v>12.13459663846413</v>
+        <v>12.17398689074956</v>
       </c>
       <c r="N9" t="n">
-        <v>243.1945401472139</v>
+        <v>244.3212409976366</v>
       </c>
       <c r="O9" t="n">
-        <v>15.59469589787547</v>
+        <v>15.63077864335736</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6548383858184</v>
+        <v>313.7897473845495</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31176,28 +31176,28 @@
         <v>0.0594</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9250463331274416</v>
+        <v>0.9139377642953694</v>
       </c>
       <c r="J10" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" t="n">
-        <v>0.194735405933618</v>
+        <v>0.1909607472629546</v>
       </c>
       <c r="M10" t="n">
-        <v>10.79427744117998</v>
+        <v>10.82184689958161</v>
       </c>
       <c r="N10" t="n">
-        <v>208.6936402659268</v>
+        <v>209.3214423849684</v>
       </c>
       <c r="O10" t="n">
-        <v>14.44623273611244</v>
+        <v>14.46794534082046</v>
       </c>
       <c r="P10" t="n">
-        <v>317.8551099968913</v>
+        <v>317.96466820993</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31254,28 +31254,28 @@
         <v>0.0475</v>
       </c>
       <c r="I11" t="n">
-        <v>1.438292701035604</v>
+        <v>1.421079640558149</v>
       </c>
       <c r="J11" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K11" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2099128957985507</v>
+        <v>0.2057914925763965</v>
       </c>
       <c r="M11" t="n">
-        <v>15.86045785787518</v>
+        <v>15.91195310071386</v>
       </c>
       <c r="N11" t="n">
-        <v>446.384138927841</v>
+        <v>448.0801449739366</v>
       </c>
       <c r="O11" t="n">
-        <v>21.12780487717172</v>
+        <v>21.16790365090357</v>
       </c>
       <c r="P11" t="n">
-        <v>325.3968652658277</v>
+        <v>325.5705860955864</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31332,28 +31332,28 @@
         <v>0.0674</v>
       </c>
       <c r="I12" t="n">
-        <v>1.409931798011604</v>
+        <v>1.382841976419577</v>
       </c>
       <c r="J12" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K12" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L12" t="n">
-        <v>0.205663461951309</v>
+        <v>0.1977071727473911</v>
       </c>
       <c r="M12" t="n">
-        <v>15.37398120468388</v>
+        <v>15.48487481138703</v>
       </c>
       <c r="N12" t="n">
-        <v>432.4564112953359</v>
+        <v>438.2763631323711</v>
       </c>
       <c r="O12" t="n">
-        <v>20.79558634170568</v>
+        <v>20.93505106591267</v>
       </c>
       <c r="P12" t="n">
-        <v>333.8892865877125</v>
+        <v>334.1696037939857</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31410,28 +31410,28 @@
         <v>0.0708</v>
       </c>
       <c r="I13" t="n">
-        <v>1.316398169907135</v>
+        <v>1.288747129383036</v>
       </c>
       <c r="J13" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K13" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1680393306585823</v>
+        <v>0.1608560238956788</v>
       </c>
       <c r="M13" t="n">
-        <v>16.6745236378027</v>
+        <v>16.78988048702275</v>
       </c>
       <c r="N13" t="n">
-        <v>472.5045326926783</v>
+        <v>478.4952656037425</v>
       </c>
       <c r="O13" t="n">
-        <v>21.73716938087106</v>
+        <v>21.87453463742126</v>
       </c>
       <c r="P13" t="n">
-        <v>341.0131732277094</v>
+        <v>341.3027337815753</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31488,28 +31488,28 @@
         <v>0.1507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.190347087686419</v>
+        <v>1.162574401176923</v>
       </c>
       <c r="J14" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K14" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1249521214452959</v>
+        <v>0.1191065655465232</v>
       </c>
       <c r="M14" t="n">
-        <v>17.84527204680827</v>
+        <v>17.95391316097287</v>
       </c>
       <c r="N14" t="n">
-        <v>552.372698598735</v>
+        <v>558.0886806398256</v>
       </c>
       <c r="O14" t="n">
-        <v>23.50261046349394</v>
+        <v>23.62390062288245</v>
       </c>
       <c r="P14" t="n">
-        <v>342.6605668245834</v>
+        <v>342.9467211658121</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31566,28 +31566,28 @@
         <v>0.1272</v>
       </c>
       <c r="I15" t="n">
-        <v>1.223835318747405</v>
+        <v>1.199014149161286</v>
       </c>
       <c r="J15" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1182044931049646</v>
+        <v>0.1136920727331624</v>
       </c>
       <c r="M15" t="n">
-        <v>18.95819839833105</v>
+        <v>19.05417968682639</v>
       </c>
       <c r="N15" t="n">
-        <v>632.1337443467421</v>
+        <v>636.0568136026774</v>
       </c>
       <c r="O15" t="n">
-        <v>25.14227007147012</v>
+        <v>25.22016680362518</v>
       </c>
       <c r="P15" t="n">
-        <v>335.8052017271106</v>
+        <v>336.0553470458256</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31644,28 +31644,28 @@
         <v>0.1517</v>
       </c>
       <c r="I16" t="n">
-        <v>1.339873714542833</v>
+        <v>1.31227699097552</v>
       </c>
       <c r="J16" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K16" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1267357853541893</v>
+        <v>0.1217862871699021</v>
       </c>
       <c r="M16" t="n">
-        <v>19.74966932720855</v>
+        <v>19.86466705542983</v>
       </c>
       <c r="N16" t="n">
-        <v>682.1265687621493</v>
+        <v>686.9357937960984</v>
       </c>
       <c r="O16" t="n">
-        <v>26.11755288617502</v>
+        <v>26.20946000580894</v>
       </c>
       <c r="P16" t="n">
-        <v>333.4365517802353</v>
+        <v>333.7209954373027</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31722,28 +31722,28 @@
         <v>0.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.498761388072</v>
+        <v>1.468304035892617</v>
       </c>
       <c r="J17" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K17" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1527588171195847</v>
+        <v>0.146797036898232</v>
       </c>
       <c r="M17" t="n">
-        <v>19.91588410112481</v>
+        <v>20.05318682637816</v>
       </c>
       <c r="N17" t="n">
-        <v>676.9755986655467</v>
+        <v>683.0479371200394</v>
       </c>
       <c r="O17" t="n">
-        <v>26.01875474855679</v>
+        <v>26.13518580611279</v>
       </c>
       <c r="P17" t="n">
-        <v>329.4416592899656</v>
+        <v>329.7597481493573</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31800,28 +31800,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.782378912376661</v>
+        <v>1.752286709060314</v>
       </c>
       <c r="J18" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K18" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2238705603714041</v>
+        <v>0.2166553744018529</v>
       </c>
       <c r="M18" t="n">
-        <v>19.01008542007844</v>
+        <v>19.1466099176901</v>
       </c>
       <c r="N18" t="n">
-        <v>616.3909808513645</v>
+        <v>623.1905071174345</v>
       </c>
       <c r="O18" t="n">
-        <v>24.82722257626423</v>
+        <v>24.96378391024555</v>
       </c>
       <c r="P18" t="n">
-        <v>325.3213900605693</v>
+        <v>325.6288224447096</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31878,28 +31878,28 @@
         <v>0.1982</v>
       </c>
       <c r="I19" t="n">
-        <v>1.632496062902604</v>
+        <v>1.603110256293779</v>
       </c>
       <c r="J19" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K19" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2009169710696028</v>
+        <v>0.1938000475300168</v>
       </c>
       <c r="M19" t="n">
-        <v>18.8602167943193</v>
+        <v>19.0077114311717</v>
       </c>
       <c r="N19" t="n">
-        <v>592.7844374099245</v>
+        <v>599.5984134163001</v>
       </c>
       <c r="O19" t="n">
-        <v>24.34716487416809</v>
+        <v>24.48669870391475</v>
       </c>
       <c r="P19" t="n">
-        <v>332.3611012917451</v>
+        <v>332.6634483597274</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">

--- a/data/nzd0527/nzd0527.xlsx
+++ b/data/nzd0527/nzd0527.xlsx
@@ -30543,13 +30543,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0309</v>
+        <v>0.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0427</v>
+        <v>0.0503</v>
       </c>
       <c r="I2" t="n">
         <v>0.7370093850809391</v>
@@ -30621,13 +30621,13 @@
         <v>0.05883518456451162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0435</v>
+        <v>0.056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0625</v>
+        <v>0.0789</v>
       </c>
       <c r="I3" t="n">
         <v>0.6330964398503982</v>
@@ -30702,10 +30702,10 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0482</v>
+        <v>0.0528</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0873</v>
+        <v>0.075</v>
       </c>
       <c r="I4" t="n">
         <v>0.6545980772371311</v>
@@ -30780,10 +30780,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0557</v>
+        <v>0.0629</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0885</v>
+        <v>0.0822</v>
       </c>
       <c r="I5" t="n">
         <v>0.6588252246766637</v>
@@ -30855,13 +30855,13 @@
         <v>0.2353407382589363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0401</v>
+        <v>0.0468</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0571</v>
+        <v>0.0634</v>
       </c>
       <c r="I6" t="n">
         <v>0.6955557540204798</v>
@@ -30936,10 +30936,10 @@
         <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0491</v>
+        <v>0.0495</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0667</v>
       </c>
       <c r="I7" t="n">
         <v>1.175163869925755</v>
@@ -31011,13 +31011,13 @@
         <v>0.3529225357169104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0386</v>
+        <v>0.0479</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0536</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0.9715353560954328</v>
@@ -31089,13 +31089,13 @@
         <v>0.411757720281413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0426</v>
+        <v>0.0532</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0581</v>
+        <v>0.0717</v>
       </c>
       <c r="I9" t="n">
         <v>0.797646190934883</v>
@@ -31167,13 +31167,13 @@
         <v>0.4705929048456735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0443</v>
+        <v>0.0596</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0594</v>
+        <v>0.0781</v>
       </c>
       <c r="I10" t="n">
         <v>0.9139377642953692</v>
@@ -31245,13 +31245,13 @@
         <v>0.5294280894104182</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0345</v>
+        <v>0.0409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0475</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>1.421079640558149</v>
@@ -31323,13 +31323,13 @@
         <v>0.5881894451495743</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0447</v>
+        <v>0.06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0674</v>
+        <v>0.1014</v>
       </c>
       <c r="I12" t="n">
         <v>1.382829261941543</v>
@@ -31401,13 +31401,13 @@
         <v>0.6470246297137131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0467</v>
+        <v>0.054</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0708</v>
+        <v>0.0926</v>
       </c>
       <c r="I13" t="n">
         <v>1.288729737419179</v>
@@ -31479,13 +31479,13 @@
         <v>0.7058598142781419</v>
       </c>
       <c r="F14" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0697</v>
+        <v>0.0659</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1507</v>
+        <v>0.1059</v>
       </c>
       <c r="I14" t="n">
         <v>1.162543509365506</v>
@@ -31557,13 +31557,13 @@
         <v>0.7646949988428607</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0569</v>
+        <v>0.0496</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1272</v>
+        <v>0.0788</v>
       </c>
       <c r="I15" t="n">
         <v>1.19903103847664</v>
@@ -31635,13 +31635,13 @@
         <v>0.8234944463072401</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0617</v>
+        <v>0.0532</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1517</v>
+        <v>0.0936</v>
       </c>
       <c r="I16" t="n">
         <v>1.31227979652467</v>
@@ -31713,13 +31713,13 @@
         <v>0.8823296308714138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.095</v>
+        <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0596</v>
+        <v>0.0461</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>1.468276537836946</v>
@@ -31791,13 +31791,13 @@
         <v>0.9411648154355875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0511</v>
+        <v>0.0574</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.1195</v>
       </c>
       <c r="I18" t="n">
         <v>1.75229248513221</v>
@@ -31869,13 +31869,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0535</v>
+        <v>0.0718</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1982</v>
+        <v>0.1194</v>
       </c>
       <c r="I19" t="n">
         <v>1.603106582424993</v>
